--- a/PartyMemberManager/ExcelTemplates/教职工入党积极分子培训报名表模板.xlsx
+++ b/PartyMemberManager/ExcelTemplates/教职工入党积极分子培训报名表模板.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,34 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\我的文件\PartyMemberManager\PartyMemberManager\ExcelTemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{95C9FFD0-2FEC-452C-8127-174430E08541}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D6AA878-BD17-48E5-8D67-9A6AAFCB3783}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2235" yWindow="525" windowWidth="15390" windowHeight="9705"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="报名表" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">报名表!$1:$1</definedName>
     <definedName name="_xlnm.Print_Titles">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="144525" fullCalcOnLoad="1"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="26">
   <si>
     <t>序号</t>
   </si>
@@ -71,10 +60,6 @@
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
-    <t>王海</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
     <t>男</t>
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
@@ -94,15 +79,55 @@
     <t>姓名</t>
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
+  <si>
+    <t>王老师</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息工程</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>620102200001025678</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>1980.3.1</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.08.20</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -248,6 +273,12 @@
       <b/>
       <sz val="12"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1618,9 +1649,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1648,380 +1676,383 @@
     <xf numFmtId="49" fontId="23" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="372">
-    <cellStyle name="20% - 强调文字颜色 1 10" xfId="1"/>
-    <cellStyle name="20% - 强调文字颜色 1 2" xfId="2"/>
-    <cellStyle name="20% - 强调文字颜色 1 3" xfId="3"/>
-    <cellStyle name="20% - 强调文字颜色 1 4" xfId="4"/>
-    <cellStyle name="20% - 强调文字颜色 1 5" xfId="5"/>
-    <cellStyle name="20% - 强调文字颜色 1 6" xfId="6"/>
-    <cellStyle name="20% - 强调文字颜色 1 7" xfId="7"/>
-    <cellStyle name="20% - 强调文字颜色 1 8" xfId="8"/>
-    <cellStyle name="20% - 强调文字颜色 1 9" xfId="9"/>
-    <cellStyle name="20% - 强调文字颜色 2 10" xfId="10"/>
-    <cellStyle name="20% - 强调文字颜色 2 2" xfId="11"/>
-    <cellStyle name="20% - 强调文字颜色 2 3" xfId="12"/>
-    <cellStyle name="20% - 强调文字颜色 2 4" xfId="13"/>
-    <cellStyle name="20% - 强调文字颜色 2 5" xfId="14"/>
-    <cellStyle name="20% - 强调文字颜色 2 6" xfId="15"/>
-    <cellStyle name="20% - 强调文字颜色 2 7" xfId="16"/>
-    <cellStyle name="20% - 强调文字颜色 2 8" xfId="17"/>
-    <cellStyle name="20% - 强调文字颜色 2 9" xfId="18"/>
-    <cellStyle name="20% - 强调文字颜色 3 10" xfId="19"/>
-    <cellStyle name="20% - 强调文字颜色 3 2" xfId="20"/>
-    <cellStyle name="20% - 强调文字颜色 3 3" xfId="21"/>
-    <cellStyle name="20% - 强调文字颜色 3 4" xfId="22"/>
-    <cellStyle name="20% - 强调文字颜色 3 5" xfId="23"/>
-    <cellStyle name="20% - 强调文字颜色 3 6" xfId="24"/>
-    <cellStyle name="20% - 强调文字颜色 3 7" xfId="25"/>
-    <cellStyle name="20% - 强调文字颜色 3 8" xfId="26"/>
-    <cellStyle name="20% - 强调文字颜色 3 9" xfId="27"/>
-    <cellStyle name="20% - 强调文字颜色 4 10" xfId="28"/>
-    <cellStyle name="20% - 强调文字颜色 4 2" xfId="29"/>
-    <cellStyle name="20% - 强调文字颜色 4 3" xfId="30"/>
-    <cellStyle name="20% - 强调文字颜色 4 4" xfId="31"/>
-    <cellStyle name="20% - 强调文字颜色 4 5" xfId="32"/>
-    <cellStyle name="20% - 强调文字颜色 4 6" xfId="33"/>
-    <cellStyle name="20% - 强调文字颜色 4 7" xfId="34"/>
-    <cellStyle name="20% - 强调文字颜色 4 8" xfId="35"/>
-    <cellStyle name="20% - 强调文字颜色 4 9" xfId="36"/>
-    <cellStyle name="20% - 强调文字颜色 5 10" xfId="37"/>
-    <cellStyle name="20% - 强调文字颜色 5 2" xfId="38"/>
-    <cellStyle name="20% - 强调文字颜色 5 3" xfId="39"/>
-    <cellStyle name="20% - 强调文字颜色 5 4" xfId="40"/>
-    <cellStyle name="20% - 强调文字颜色 5 5" xfId="41"/>
-    <cellStyle name="20% - 强调文字颜色 5 6" xfId="42"/>
-    <cellStyle name="20% - 强调文字颜色 5 7" xfId="43"/>
-    <cellStyle name="20% - 强调文字颜色 5 8" xfId="44"/>
-    <cellStyle name="20% - 强调文字颜色 5 9" xfId="45"/>
-    <cellStyle name="20% - 强调文字颜色 6 10" xfId="46"/>
-    <cellStyle name="20% - 强调文字颜色 6 2" xfId="47"/>
-    <cellStyle name="20% - 强调文字颜色 6 3" xfId="48"/>
-    <cellStyle name="20% - 强调文字颜色 6 4" xfId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6 5" xfId="50"/>
-    <cellStyle name="20% - 强调文字颜色 6 6" xfId="51"/>
-    <cellStyle name="20% - 强调文字颜色 6 7" xfId="52"/>
-    <cellStyle name="20% - 强调文字颜色 6 8" xfId="53"/>
-    <cellStyle name="20% - 强调文字颜色 6 9" xfId="54"/>
-    <cellStyle name="40% - 强调文字颜色 1 10" xfId="55"/>
-    <cellStyle name="40% - 强调文字颜色 1 2" xfId="56"/>
-    <cellStyle name="40% - 强调文字颜色 1 3" xfId="57"/>
-    <cellStyle name="40% - 强调文字颜色 1 4" xfId="58"/>
-    <cellStyle name="40% - 强调文字颜色 1 5" xfId="59"/>
-    <cellStyle name="40% - 强调文字颜色 1 6" xfId="60"/>
-    <cellStyle name="40% - 强调文字颜色 1 7" xfId="61"/>
-    <cellStyle name="40% - 强调文字颜色 1 8" xfId="62"/>
-    <cellStyle name="40% - 强调文字颜色 1 9" xfId="63"/>
-    <cellStyle name="40% - 强调文字颜色 2 10" xfId="64"/>
-    <cellStyle name="40% - 强调文字颜色 2 2" xfId="65"/>
-    <cellStyle name="40% - 强调文字颜色 2 3" xfId="66"/>
-    <cellStyle name="40% - 强调文字颜色 2 4" xfId="67"/>
-    <cellStyle name="40% - 强调文字颜色 2 5" xfId="68"/>
-    <cellStyle name="40% - 强调文字颜色 2 6" xfId="69"/>
-    <cellStyle name="40% - 强调文字颜色 2 7" xfId="70"/>
-    <cellStyle name="40% - 强调文字颜色 2 8" xfId="71"/>
-    <cellStyle name="40% - 强调文字颜色 2 9" xfId="72"/>
-    <cellStyle name="40% - 强调文字颜色 3 10" xfId="73"/>
-    <cellStyle name="40% - 强调文字颜色 3 2" xfId="74"/>
-    <cellStyle name="40% - 强调文字颜色 3 3" xfId="75"/>
-    <cellStyle name="40% - 强调文字颜色 3 4" xfId="76"/>
-    <cellStyle name="40% - 强调文字颜色 3 5" xfId="77"/>
-    <cellStyle name="40% - 强调文字颜色 3 6" xfId="78"/>
-    <cellStyle name="40% - 强调文字颜色 3 7" xfId="79"/>
-    <cellStyle name="40% - 强调文字颜色 3 8" xfId="80"/>
-    <cellStyle name="40% - 强调文字颜色 3 9" xfId="81"/>
-    <cellStyle name="40% - 强调文字颜色 4 10" xfId="82"/>
-    <cellStyle name="40% - 强调文字颜色 4 2" xfId="83"/>
-    <cellStyle name="40% - 强调文字颜色 4 3" xfId="84"/>
-    <cellStyle name="40% - 强调文字颜色 4 4" xfId="85"/>
-    <cellStyle name="40% - 强调文字颜色 4 5" xfId="86"/>
-    <cellStyle name="40% - 强调文字颜色 4 6" xfId="87"/>
-    <cellStyle name="40% - 强调文字颜色 4 7" xfId="88"/>
-    <cellStyle name="40% - 强调文字颜色 4 8" xfId="89"/>
-    <cellStyle name="40% - 强调文字颜色 4 9" xfId="90"/>
-    <cellStyle name="40% - 强调文字颜色 5 10" xfId="91"/>
-    <cellStyle name="40% - 强调文字颜色 5 2" xfId="92"/>
-    <cellStyle name="40% - 强调文字颜色 5 3" xfId="93"/>
-    <cellStyle name="40% - 强调文字颜色 5 4" xfId="94"/>
-    <cellStyle name="40% - 强调文字颜色 5 5" xfId="95"/>
-    <cellStyle name="40% - 强调文字颜色 5 6" xfId="96"/>
-    <cellStyle name="40% - 强调文字颜色 5 7" xfId="97"/>
-    <cellStyle name="40% - 强调文字颜色 5 8" xfId="98"/>
-    <cellStyle name="40% - 强调文字颜色 5 9" xfId="99"/>
-    <cellStyle name="40% - 强调文字颜色 6 10" xfId="100"/>
-    <cellStyle name="40% - 强调文字颜色 6 2" xfId="101"/>
-    <cellStyle name="40% - 强调文字颜色 6 3" xfId="102"/>
-    <cellStyle name="40% - 强调文字颜色 6 4" xfId="103"/>
-    <cellStyle name="40% - 强调文字颜色 6 5" xfId="104"/>
-    <cellStyle name="40% - 强调文字颜色 6 6" xfId="105"/>
-    <cellStyle name="40% - 强调文字颜色 6 7" xfId="106"/>
-    <cellStyle name="40% - 强调文字颜色 6 8" xfId="107"/>
-    <cellStyle name="40% - 强调文字颜色 6 9" xfId="108"/>
-    <cellStyle name="60% - 强调文字颜色 1 10" xfId="109"/>
-    <cellStyle name="60% - 强调文字颜色 1 2" xfId="110"/>
-    <cellStyle name="60% - 强调文字颜色 1 3" xfId="111"/>
-    <cellStyle name="60% - 强调文字颜色 1 4" xfId="112"/>
-    <cellStyle name="60% - 强调文字颜色 1 5" xfId="113"/>
-    <cellStyle name="60% - 强调文字颜色 1 6" xfId="114"/>
-    <cellStyle name="60% - 强调文字颜色 1 7" xfId="115"/>
-    <cellStyle name="60% - 强调文字颜色 1 8" xfId="116"/>
-    <cellStyle name="60% - 强调文字颜色 1 9" xfId="117"/>
-    <cellStyle name="60% - 强调文字颜色 2 10" xfId="118"/>
-    <cellStyle name="60% - 强调文字颜色 2 2" xfId="119"/>
-    <cellStyle name="60% - 强调文字颜色 2 3" xfId="120"/>
-    <cellStyle name="60% - 强调文字颜色 2 4" xfId="121"/>
-    <cellStyle name="60% - 强调文字颜色 2 5" xfId="122"/>
-    <cellStyle name="60% - 强调文字颜色 2 6" xfId="123"/>
-    <cellStyle name="60% - 强调文字颜色 2 7" xfId="124"/>
-    <cellStyle name="60% - 强调文字颜色 2 8" xfId="125"/>
-    <cellStyle name="60% - 强调文字颜色 2 9" xfId="126"/>
-    <cellStyle name="60% - 强调文字颜色 3 10" xfId="127"/>
-    <cellStyle name="60% - 强调文字颜色 3 2" xfId="128"/>
-    <cellStyle name="60% - 强调文字颜色 3 3" xfId="129"/>
-    <cellStyle name="60% - 强调文字颜色 3 4" xfId="130"/>
-    <cellStyle name="60% - 强调文字颜色 3 5" xfId="131"/>
-    <cellStyle name="60% - 强调文字颜色 3 6" xfId="132"/>
-    <cellStyle name="60% - 强调文字颜色 3 7" xfId="133"/>
-    <cellStyle name="60% - 强调文字颜色 3 8" xfId="134"/>
-    <cellStyle name="60% - 强调文字颜色 3 9" xfId="135"/>
-    <cellStyle name="60% - 强调文字颜色 4 10" xfId="136"/>
-    <cellStyle name="60% - 强调文字颜色 4 2" xfId="137"/>
-    <cellStyle name="60% - 强调文字颜色 4 3" xfId="138"/>
-    <cellStyle name="60% - 强调文字颜色 4 4" xfId="139"/>
-    <cellStyle name="60% - 强调文字颜色 4 5" xfId="140"/>
-    <cellStyle name="60% - 强调文字颜色 4 6" xfId="141"/>
-    <cellStyle name="60% - 强调文字颜色 4 7" xfId="142"/>
-    <cellStyle name="60% - 强调文字颜色 4 8" xfId="143"/>
-    <cellStyle name="60% - 强调文字颜色 4 9" xfId="144"/>
-    <cellStyle name="60% - 强调文字颜色 5 10" xfId="145"/>
-    <cellStyle name="60% - 强调文字颜色 5 2" xfId="146"/>
-    <cellStyle name="60% - 强调文字颜色 5 3" xfId="147"/>
-    <cellStyle name="60% - 强调文字颜色 5 4" xfId="148"/>
-    <cellStyle name="60% - 强调文字颜色 5 5" xfId="149"/>
-    <cellStyle name="60% - 强调文字颜色 5 6" xfId="150"/>
-    <cellStyle name="60% - 强调文字颜色 5 7" xfId="151"/>
-    <cellStyle name="60% - 强调文字颜色 5 8" xfId="152"/>
-    <cellStyle name="60% - 强调文字颜色 5 9" xfId="153"/>
-    <cellStyle name="60% - 强调文字颜色 6 10" xfId="154"/>
-    <cellStyle name="60% - 强调文字颜色 6 2" xfId="155"/>
-    <cellStyle name="60% - 强调文字颜色 6 3" xfId="156"/>
-    <cellStyle name="60% - 强调文字颜色 6 4" xfId="157"/>
-    <cellStyle name="60% - 强调文字颜色 6 5" xfId="158"/>
-    <cellStyle name="60% - 强调文字颜色 6 6" xfId="159"/>
-    <cellStyle name="60% - 强调文字颜色 6 7" xfId="160"/>
-    <cellStyle name="60% - 强调文字颜色 6 8" xfId="161"/>
-    <cellStyle name="60% - 强调文字颜色 6 9" xfId="162"/>
-    <cellStyle name="标题 1 10" xfId="163"/>
-    <cellStyle name="标题 1 2" xfId="164"/>
-    <cellStyle name="标题 1 3" xfId="165"/>
-    <cellStyle name="标题 1 4" xfId="166"/>
-    <cellStyle name="标题 1 5" xfId="167"/>
-    <cellStyle name="标题 1 6" xfId="168"/>
-    <cellStyle name="标题 1 7" xfId="169"/>
-    <cellStyle name="标题 1 8" xfId="170"/>
-    <cellStyle name="标题 1 9" xfId="171"/>
-    <cellStyle name="标题 10" xfId="172"/>
-    <cellStyle name="标题 11" xfId="173"/>
-    <cellStyle name="标题 12" xfId="174"/>
-    <cellStyle name="标题 13" xfId="175"/>
-    <cellStyle name="标题 2 10" xfId="176"/>
-    <cellStyle name="标题 2 2" xfId="177"/>
-    <cellStyle name="标题 2 3" xfId="178"/>
-    <cellStyle name="标题 2 4" xfId="179"/>
-    <cellStyle name="标题 2 5" xfId="180"/>
-    <cellStyle name="标题 2 6" xfId="181"/>
-    <cellStyle name="标题 2 7" xfId="182"/>
-    <cellStyle name="标题 2 8" xfId="183"/>
-    <cellStyle name="标题 2 9" xfId="184"/>
-    <cellStyle name="标题 3 10" xfId="185"/>
-    <cellStyle name="标题 3 2" xfId="186"/>
-    <cellStyle name="标题 3 3" xfId="187"/>
-    <cellStyle name="标题 3 4" xfId="188"/>
-    <cellStyle name="标题 3 5" xfId="189"/>
-    <cellStyle name="标题 3 6" xfId="190"/>
-    <cellStyle name="标题 3 7" xfId="191"/>
-    <cellStyle name="标题 3 8" xfId="192"/>
-    <cellStyle name="标题 3 9" xfId="193"/>
-    <cellStyle name="标题 4 10" xfId="194"/>
-    <cellStyle name="标题 4 2" xfId="195"/>
-    <cellStyle name="标题 4 3" xfId="196"/>
-    <cellStyle name="标题 4 4" xfId="197"/>
-    <cellStyle name="标题 4 5" xfId="198"/>
-    <cellStyle name="标题 4 6" xfId="199"/>
-    <cellStyle name="标题 4 7" xfId="200"/>
-    <cellStyle name="标题 4 8" xfId="201"/>
-    <cellStyle name="标题 4 9" xfId="202"/>
-    <cellStyle name="标题 5" xfId="203"/>
-    <cellStyle name="标题 6" xfId="204"/>
-    <cellStyle name="标题 7" xfId="205"/>
-    <cellStyle name="标题 8" xfId="206"/>
-    <cellStyle name="标题 9" xfId="207"/>
-    <cellStyle name="差 10" xfId="208"/>
-    <cellStyle name="差 2" xfId="209"/>
-    <cellStyle name="差 3" xfId="210"/>
-    <cellStyle name="差 4" xfId="211"/>
-    <cellStyle name="差 5" xfId="212"/>
-    <cellStyle name="差 6" xfId="213"/>
-    <cellStyle name="差 7" xfId="214"/>
-    <cellStyle name="差 8" xfId="215"/>
-    <cellStyle name="差 9" xfId="216"/>
+    <cellStyle name="20% - 强调文字颜色 1 10" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 4" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 5" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 6" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 7" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 8" xfId="8" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 9" xfId="9" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 10" xfId="10" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2" xfId="11" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 3" xfId="12" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 4" xfId="13" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 5" xfId="14" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 6" xfId="15" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 7" xfId="16" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 8" xfId="17" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 9" xfId="18" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 10" xfId="19" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 3" xfId="21" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 4" xfId="22" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 5" xfId="23" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 6" xfId="24" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 7" xfId="25" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 8" xfId="26" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 9" xfId="27" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 10" xfId="28" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2" xfId="29" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 3" xfId="30" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 4" xfId="31" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 5" xfId="32" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 6" xfId="33" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 7" xfId="34" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 8" xfId="35" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 9" xfId="36" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 10" xfId="37" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 3" xfId="39" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 4" xfId="40" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 5" xfId="41" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 6" xfId="42" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 7" xfId="43" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 8" xfId="44" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 9" xfId="45" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 10" xfId="46" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2" xfId="47" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 3" xfId="48" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 4" xfId="49" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 5" xfId="50" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 6" xfId="51" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 7" xfId="52" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 8" xfId="53" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 9" xfId="54" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 10" xfId="55" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2" xfId="56" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 3" xfId="57" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 4" xfId="58" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 5" xfId="59" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 6" xfId="60" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 7" xfId="61" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 8" xfId="62" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 9" xfId="63" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 10" xfId="64" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2" xfId="65" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 3" xfId="66" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 4" xfId="67" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 5" xfId="68" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 6" xfId="69" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 7" xfId="70" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 8" xfId="71" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 9" xfId="72" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 10" xfId="73" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2" xfId="74" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 3" xfId="75" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 4" xfId="76" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 5" xfId="77" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 6" xfId="78" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 7" xfId="79" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 8" xfId="80" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 9" xfId="81" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 10" xfId="82" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2" xfId="83" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 3" xfId="84" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 4" xfId="85" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 5" xfId="86" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 6" xfId="87" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 7" xfId="88" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 8" xfId="89" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 9" xfId="90" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 10" xfId="91" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2" xfId="92" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 3" xfId="93" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 4" xfId="94" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 5" xfId="95" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 6" xfId="96" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 7" xfId="97" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 8" xfId="98" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 9" xfId="99" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 10" xfId="100" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2" xfId="101" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 3" xfId="102" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 4" xfId="103" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 5" xfId="104" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 6" xfId="105" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 7" xfId="106" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 8" xfId="107" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 9" xfId="108" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
+    <cellStyle name="60% - 强调文字颜色 1 10" xfId="109" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
+    <cellStyle name="60% - 强调文字颜色 1 2" xfId="110" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
+    <cellStyle name="60% - 强调文字颜色 1 3" xfId="111" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
+    <cellStyle name="60% - 强调文字颜色 1 4" xfId="112" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
+    <cellStyle name="60% - 强调文字颜色 1 5" xfId="113" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
+    <cellStyle name="60% - 强调文字颜色 1 6" xfId="114" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
+    <cellStyle name="60% - 强调文字颜色 1 7" xfId="115" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
+    <cellStyle name="60% - 强调文字颜色 1 8" xfId="116" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
+    <cellStyle name="60% - 强调文字颜色 1 9" xfId="117" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
+    <cellStyle name="60% - 强调文字颜色 2 10" xfId="118" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
+    <cellStyle name="60% - 强调文字颜色 2 2" xfId="119" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
+    <cellStyle name="60% - 强调文字颜色 2 3" xfId="120" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
+    <cellStyle name="60% - 强调文字颜色 2 4" xfId="121" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
+    <cellStyle name="60% - 强调文字颜色 2 5" xfId="122" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
+    <cellStyle name="60% - 强调文字颜色 2 6" xfId="123" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
+    <cellStyle name="60% - 强调文字颜色 2 7" xfId="124" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
+    <cellStyle name="60% - 强调文字颜色 2 8" xfId="125" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
+    <cellStyle name="60% - 强调文字颜色 2 9" xfId="126" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
+    <cellStyle name="60% - 强调文字颜色 3 10" xfId="127" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
+    <cellStyle name="60% - 强调文字颜色 3 2" xfId="128" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
+    <cellStyle name="60% - 强调文字颜色 3 3" xfId="129" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
+    <cellStyle name="60% - 强调文字颜色 3 4" xfId="130" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
+    <cellStyle name="60% - 强调文字颜色 3 5" xfId="131" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
+    <cellStyle name="60% - 强调文字颜色 3 6" xfId="132" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
+    <cellStyle name="60% - 强调文字颜色 3 7" xfId="133" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
+    <cellStyle name="60% - 强调文字颜色 3 8" xfId="134" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
+    <cellStyle name="60% - 强调文字颜色 3 9" xfId="135" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
+    <cellStyle name="60% - 强调文字颜色 4 10" xfId="136" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
+    <cellStyle name="60% - 强调文字颜色 4 2" xfId="137" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
+    <cellStyle name="60% - 强调文字颜色 4 3" xfId="138" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
+    <cellStyle name="60% - 强调文字颜色 4 4" xfId="139" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
+    <cellStyle name="60% - 强调文字颜色 4 5" xfId="140" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
+    <cellStyle name="60% - 强调文字颜色 4 6" xfId="141" xr:uid="{00000000-0005-0000-0000-00008C000000}"/>
+    <cellStyle name="60% - 强调文字颜色 4 7" xfId="142" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
+    <cellStyle name="60% - 强调文字颜色 4 8" xfId="143" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
+    <cellStyle name="60% - 强调文字颜色 4 9" xfId="144" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
+    <cellStyle name="60% - 强调文字颜色 5 10" xfId="145" xr:uid="{00000000-0005-0000-0000-000090000000}"/>
+    <cellStyle name="60% - 强调文字颜色 5 2" xfId="146" xr:uid="{00000000-0005-0000-0000-000091000000}"/>
+    <cellStyle name="60% - 强调文字颜色 5 3" xfId="147" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
+    <cellStyle name="60% - 强调文字颜色 5 4" xfId="148" xr:uid="{00000000-0005-0000-0000-000093000000}"/>
+    <cellStyle name="60% - 强调文字颜色 5 5" xfId="149" xr:uid="{00000000-0005-0000-0000-000094000000}"/>
+    <cellStyle name="60% - 强调文字颜色 5 6" xfId="150" xr:uid="{00000000-0005-0000-0000-000095000000}"/>
+    <cellStyle name="60% - 强调文字颜色 5 7" xfId="151" xr:uid="{00000000-0005-0000-0000-000096000000}"/>
+    <cellStyle name="60% - 强调文字颜色 5 8" xfId="152" xr:uid="{00000000-0005-0000-0000-000097000000}"/>
+    <cellStyle name="60% - 强调文字颜色 5 9" xfId="153" xr:uid="{00000000-0005-0000-0000-000098000000}"/>
+    <cellStyle name="60% - 强调文字颜色 6 10" xfId="154" xr:uid="{00000000-0005-0000-0000-000099000000}"/>
+    <cellStyle name="60% - 强调文字颜色 6 2" xfId="155" xr:uid="{00000000-0005-0000-0000-00009A000000}"/>
+    <cellStyle name="60% - 强调文字颜色 6 3" xfId="156" xr:uid="{00000000-0005-0000-0000-00009B000000}"/>
+    <cellStyle name="60% - 强调文字颜色 6 4" xfId="157" xr:uid="{00000000-0005-0000-0000-00009C000000}"/>
+    <cellStyle name="60% - 强调文字颜色 6 5" xfId="158" xr:uid="{00000000-0005-0000-0000-00009D000000}"/>
+    <cellStyle name="60% - 强调文字颜色 6 6" xfId="159" xr:uid="{00000000-0005-0000-0000-00009E000000}"/>
+    <cellStyle name="60% - 强调文字颜色 6 7" xfId="160" xr:uid="{00000000-0005-0000-0000-00009F000000}"/>
+    <cellStyle name="60% - 强调文字颜色 6 8" xfId="161" xr:uid="{00000000-0005-0000-0000-0000A0000000}"/>
+    <cellStyle name="60% - 强调文字颜色 6 9" xfId="162" xr:uid="{00000000-0005-0000-0000-0000A1000000}"/>
+    <cellStyle name="标题 1 10" xfId="163" xr:uid="{00000000-0005-0000-0000-0000A2000000}"/>
+    <cellStyle name="标题 1 2" xfId="164" xr:uid="{00000000-0005-0000-0000-0000A3000000}"/>
+    <cellStyle name="标题 1 3" xfId="165" xr:uid="{00000000-0005-0000-0000-0000A4000000}"/>
+    <cellStyle name="标题 1 4" xfId="166" xr:uid="{00000000-0005-0000-0000-0000A5000000}"/>
+    <cellStyle name="标题 1 5" xfId="167" xr:uid="{00000000-0005-0000-0000-0000A6000000}"/>
+    <cellStyle name="标题 1 6" xfId="168" xr:uid="{00000000-0005-0000-0000-0000A7000000}"/>
+    <cellStyle name="标题 1 7" xfId="169" xr:uid="{00000000-0005-0000-0000-0000A8000000}"/>
+    <cellStyle name="标题 1 8" xfId="170" xr:uid="{00000000-0005-0000-0000-0000A9000000}"/>
+    <cellStyle name="标题 1 9" xfId="171" xr:uid="{00000000-0005-0000-0000-0000AA000000}"/>
+    <cellStyle name="标题 10" xfId="172" xr:uid="{00000000-0005-0000-0000-0000AB000000}"/>
+    <cellStyle name="标题 11" xfId="173" xr:uid="{00000000-0005-0000-0000-0000AC000000}"/>
+    <cellStyle name="标题 12" xfId="174" xr:uid="{00000000-0005-0000-0000-0000AD000000}"/>
+    <cellStyle name="标题 13" xfId="175" xr:uid="{00000000-0005-0000-0000-0000AE000000}"/>
+    <cellStyle name="标题 2 10" xfId="176" xr:uid="{00000000-0005-0000-0000-0000AF000000}"/>
+    <cellStyle name="标题 2 2" xfId="177" xr:uid="{00000000-0005-0000-0000-0000B0000000}"/>
+    <cellStyle name="标题 2 3" xfId="178" xr:uid="{00000000-0005-0000-0000-0000B1000000}"/>
+    <cellStyle name="标题 2 4" xfId="179" xr:uid="{00000000-0005-0000-0000-0000B2000000}"/>
+    <cellStyle name="标题 2 5" xfId="180" xr:uid="{00000000-0005-0000-0000-0000B3000000}"/>
+    <cellStyle name="标题 2 6" xfId="181" xr:uid="{00000000-0005-0000-0000-0000B4000000}"/>
+    <cellStyle name="标题 2 7" xfId="182" xr:uid="{00000000-0005-0000-0000-0000B5000000}"/>
+    <cellStyle name="标题 2 8" xfId="183" xr:uid="{00000000-0005-0000-0000-0000B6000000}"/>
+    <cellStyle name="标题 2 9" xfId="184" xr:uid="{00000000-0005-0000-0000-0000B7000000}"/>
+    <cellStyle name="标题 3 10" xfId="185" xr:uid="{00000000-0005-0000-0000-0000B8000000}"/>
+    <cellStyle name="标题 3 2" xfId="186" xr:uid="{00000000-0005-0000-0000-0000B9000000}"/>
+    <cellStyle name="标题 3 3" xfId="187" xr:uid="{00000000-0005-0000-0000-0000BA000000}"/>
+    <cellStyle name="标题 3 4" xfId="188" xr:uid="{00000000-0005-0000-0000-0000BB000000}"/>
+    <cellStyle name="标题 3 5" xfId="189" xr:uid="{00000000-0005-0000-0000-0000BC000000}"/>
+    <cellStyle name="标题 3 6" xfId="190" xr:uid="{00000000-0005-0000-0000-0000BD000000}"/>
+    <cellStyle name="标题 3 7" xfId="191" xr:uid="{00000000-0005-0000-0000-0000BE000000}"/>
+    <cellStyle name="标题 3 8" xfId="192" xr:uid="{00000000-0005-0000-0000-0000BF000000}"/>
+    <cellStyle name="标题 3 9" xfId="193" xr:uid="{00000000-0005-0000-0000-0000C0000000}"/>
+    <cellStyle name="标题 4 10" xfId="194" xr:uid="{00000000-0005-0000-0000-0000C1000000}"/>
+    <cellStyle name="标题 4 2" xfId="195" xr:uid="{00000000-0005-0000-0000-0000C2000000}"/>
+    <cellStyle name="标题 4 3" xfId="196" xr:uid="{00000000-0005-0000-0000-0000C3000000}"/>
+    <cellStyle name="标题 4 4" xfId="197" xr:uid="{00000000-0005-0000-0000-0000C4000000}"/>
+    <cellStyle name="标题 4 5" xfId="198" xr:uid="{00000000-0005-0000-0000-0000C5000000}"/>
+    <cellStyle name="标题 4 6" xfId="199" xr:uid="{00000000-0005-0000-0000-0000C6000000}"/>
+    <cellStyle name="标题 4 7" xfId="200" xr:uid="{00000000-0005-0000-0000-0000C7000000}"/>
+    <cellStyle name="标题 4 8" xfId="201" xr:uid="{00000000-0005-0000-0000-0000C8000000}"/>
+    <cellStyle name="标题 4 9" xfId="202" xr:uid="{00000000-0005-0000-0000-0000C9000000}"/>
+    <cellStyle name="标题 5" xfId="203" xr:uid="{00000000-0005-0000-0000-0000CA000000}"/>
+    <cellStyle name="标题 6" xfId="204" xr:uid="{00000000-0005-0000-0000-0000CB000000}"/>
+    <cellStyle name="标题 7" xfId="205" xr:uid="{00000000-0005-0000-0000-0000CC000000}"/>
+    <cellStyle name="标题 8" xfId="206" xr:uid="{00000000-0005-0000-0000-0000CD000000}"/>
+    <cellStyle name="标题 9" xfId="207" xr:uid="{00000000-0005-0000-0000-0000CE000000}"/>
+    <cellStyle name="差 10" xfId="208" xr:uid="{00000000-0005-0000-0000-0000CF000000}"/>
+    <cellStyle name="差 2" xfId="209" xr:uid="{00000000-0005-0000-0000-0000D0000000}"/>
+    <cellStyle name="差 3" xfId="210" xr:uid="{00000000-0005-0000-0000-0000D1000000}"/>
+    <cellStyle name="差 4" xfId="211" xr:uid="{00000000-0005-0000-0000-0000D2000000}"/>
+    <cellStyle name="差 5" xfId="212" xr:uid="{00000000-0005-0000-0000-0000D3000000}"/>
+    <cellStyle name="差 6" xfId="213" xr:uid="{00000000-0005-0000-0000-0000D4000000}"/>
+    <cellStyle name="差 7" xfId="214" xr:uid="{00000000-0005-0000-0000-0000D5000000}"/>
+    <cellStyle name="差 8" xfId="215" xr:uid="{00000000-0005-0000-0000-0000D6000000}"/>
+    <cellStyle name="差 9" xfId="216" xr:uid="{00000000-0005-0000-0000-0000D7000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="217"/>
-    <cellStyle name="常规 3" xfId="218"/>
-    <cellStyle name="好 10" xfId="219"/>
-    <cellStyle name="好 2" xfId="220"/>
-    <cellStyle name="好 3" xfId="221"/>
-    <cellStyle name="好 4" xfId="222"/>
-    <cellStyle name="好 5" xfId="223"/>
-    <cellStyle name="好 6" xfId="224"/>
-    <cellStyle name="好 7" xfId="225"/>
-    <cellStyle name="好 8" xfId="226"/>
-    <cellStyle name="好 9" xfId="227"/>
-    <cellStyle name="汇总 10" xfId="228"/>
-    <cellStyle name="汇总 2" xfId="229"/>
-    <cellStyle name="汇总 3" xfId="230"/>
-    <cellStyle name="汇总 4" xfId="231"/>
-    <cellStyle name="汇总 5" xfId="232"/>
-    <cellStyle name="汇总 6" xfId="233"/>
-    <cellStyle name="汇总 7" xfId="234"/>
-    <cellStyle name="汇总 8" xfId="235"/>
-    <cellStyle name="汇总 9" xfId="236"/>
-    <cellStyle name="计算 10" xfId="237"/>
-    <cellStyle name="计算 2" xfId="238"/>
-    <cellStyle name="计算 3" xfId="239"/>
-    <cellStyle name="计算 4" xfId="240"/>
-    <cellStyle name="计算 5" xfId="241"/>
-    <cellStyle name="计算 6" xfId="242"/>
-    <cellStyle name="计算 7" xfId="243"/>
-    <cellStyle name="计算 8" xfId="244"/>
-    <cellStyle name="计算 9" xfId="245"/>
-    <cellStyle name="检查单元格 10" xfId="246"/>
-    <cellStyle name="检查单元格 2" xfId="247"/>
-    <cellStyle name="检查单元格 3" xfId="248"/>
-    <cellStyle name="检查单元格 4" xfId="249"/>
-    <cellStyle name="检查单元格 5" xfId="250"/>
-    <cellStyle name="检查单元格 6" xfId="251"/>
-    <cellStyle name="检查单元格 7" xfId="252"/>
-    <cellStyle name="检查单元格 8" xfId="253"/>
-    <cellStyle name="检查单元格 9" xfId="254"/>
-    <cellStyle name="解释性文本 10" xfId="255"/>
-    <cellStyle name="解释性文本 2" xfId="256"/>
-    <cellStyle name="解释性文本 3" xfId="257"/>
-    <cellStyle name="解释性文本 4" xfId="258"/>
-    <cellStyle name="解释性文本 5" xfId="259"/>
-    <cellStyle name="解释性文本 6" xfId="260"/>
-    <cellStyle name="解释性文本 7" xfId="261"/>
-    <cellStyle name="解释性文本 8" xfId="262"/>
-    <cellStyle name="解释性文本 9" xfId="263"/>
-    <cellStyle name="警告文本 10" xfId="264"/>
-    <cellStyle name="警告文本 2" xfId="265"/>
-    <cellStyle name="警告文本 3" xfId="266"/>
-    <cellStyle name="警告文本 4" xfId="267"/>
-    <cellStyle name="警告文本 5" xfId="268"/>
-    <cellStyle name="警告文本 6" xfId="269"/>
-    <cellStyle name="警告文本 7" xfId="270"/>
-    <cellStyle name="警告文本 8" xfId="271"/>
-    <cellStyle name="警告文本 9" xfId="272"/>
-    <cellStyle name="链接单元格 10" xfId="273"/>
-    <cellStyle name="链接单元格 2" xfId="274"/>
-    <cellStyle name="链接单元格 3" xfId="275"/>
-    <cellStyle name="链接单元格 4" xfId="276"/>
-    <cellStyle name="链接单元格 5" xfId="277"/>
-    <cellStyle name="链接单元格 6" xfId="278"/>
-    <cellStyle name="链接单元格 7" xfId="279"/>
-    <cellStyle name="链接单元格 8" xfId="280"/>
-    <cellStyle name="链接单元格 9" xfId="281"/>
-    <cellStyle name="强调文字颜色 1 10" xfId="282"/>
-    <cellStyle name="强调文字颜色 1 2" xfId="283"/>
-    <cellStyle name="强调文字颜色 1 3" xfId="284"/>
-    <cellStyle name="强调文字颜色 1 4" xfId="285"/>
-    <cellStyle name="强调文字颜色 1 5" xfId="286"/>
-    <cellStyle name="强调文字颜色 1 6" xfId="287"/>
-    <cellStyle name="强调文字颜色 1 7" xfId="288"/>
-    <cellStyle name="强调文字颜色 1 8" xfId="289"/>
-    <cellStyle name="强调文字颜色 1 9" xfId="290"/>
-    <cellStyle name="强调文字颜色 2 10" xfId="291"/>
-    <cellStyle name="强调文字颜色 2 2" xfId="292"/>
-    <cellStyle name="强调文字颜色 2 3" xfId="293"/>
-    <cellStyle name="强调文字颜色 2 4" xfId="294"/>
-    <cellStyle name="强调文字颜色 2 5" xfId="295"/>
-    <cellStyle name="强调文字颜色 2 6" xfId="296"/>
-    <cellStyle name="强调文字颜色 2 7" xfId="297"/>
-    <cellStyle name="强调文字颜色 2 8" xfId="298"/>
-    <cellStyle name="强调文字颜色 2 9" xfId="299"/>
-    <cellStyle name="强调文字颜色 3 10" xfId="300"/>
-    <cellStyle name="强调文字颜色 3 2" xfId="301"/>
-    <cellStyle name="强调文字颜色 3 3" xfId="302"/>
-    <cellStyle name="强调文字颜色 3 4" xfId="303"/>
-    <cellStyle name="强调文字颜色 3 5" xfId="304"/>
-    <cellStyle name="强调文字颜色 3 6" xfId="305"/>
-    <cellStyle name="强调文字颜色 3 7" xfId="306"/>
-    <cellStyle name="强调文字颜色 3 8" xfId="307"/>
-    <cellStyle name="强调文字颜色 3 9" xfId="308"/>
-    <cellStyle name="强调文字颜色 4 10" xfId="309"/>
-    <cellStyle name="强调文字颜色 4 2" xfId="310"/>
-    <cellStyle name="强调文字颜色 4 3" xfId="311"/>
-    <cellStyle name="强调文字颜色 4 4" xfId="312"/>
-    <cellStyle name="强调文字颜色 4 5" xfId="313"/>
-    <cellStyle name="强调文字颜色 4 6" xfId="314"/>
-    <cellStyle name="强调文字颜色 4 7" xfId="315"/>
-    <cellStyle name="强调文字颜色 4 8" xfId="316"/>
-    <cellStyle name="强调文字颜色 4 9" xfId="317"/>
-    <cellStyle name="强调文字颜色 5 10" xfId="318"/>
-    <cellStyle name="强调文字颜色 5 2" xfId="319"/>
-    <cellStyle name="强调文字颜色 5 3" xfId="320"/>
-    <cellStyle name="强调文字颜色 5 4" xfId="321"/>
-    <cellStyle name="强调文字颜色 5 5" xfId="322"/>
-    <cellStyle name="强调文字颜色 5 6" xfId="323"/>
-    <cellStyle name="强调文字颜色 5 7" xfId="324"/>
-    <cellStyle name="强调文字颜色 5 8" xfId="325"/>
-    <cellStyle name="强调文字颜色 5 9" xfId="326"/>
-    <cellStyle name="强调文字颜色 6 10" xfId="327"/>
-    <cellStyle name="强调文字颜色 6 2" xfId="328"/>
-    <cellStyle name="强调文字颜色 6 3" xfId="329"/>
-    <cellStyle name="强调文字颜色 6 4" xfId="330"/>
-    <cellStyle name="强调文字颜色 6 5" xfId="331"/>
-    <cellStyle name="强调文字颜色 6 6" xfId="332"/>
-    <cellStyle name="强调文字颜色 6 7" xfId="333"/>
-    <cellStyle name="强调文字颜色 6 8" xfId="334"/>
-    <cellStyle name="强调文字颜色 6 9" xfId="335"/>
-    <cellStyle name="适中 10" xfId="336"/>
-    <cellStyle name="适中 2" xfId="337"/>
-    <cellStyle name="适中 3" xfId="338"/>
-    <cellStyle name="适中 4" xfId="339"/>
-    <cellStyle name="适中 5" xfId="340"/>
-    <cellStyle name="适中 6" xfId="341"/>
-    <cellStyle name="适中 7" xfId="342"/>
-    <cellStyle name="适中 8" xfId="343"/>
-    <cellStyle name="适中 9" xfId="344"/>
-    <cellStyle name="输出 10" xfId="345"/>
-    <cellStyle name="输出 2" xfId="346"/>
-    <cellStyle name="输出 3" xfId="347"/>
-    <cellStyle name="输出 4" xfId="348"/>
-    <cellStyle name="输出 5" xfId="349"/>
-    <cellStyle name="输出 6" xfId="350"/>
-    <cellStyle name="输出 7" xfId="351"/>
-    <cellStyle name="输出 8" xfId="352"/>
-    <cellStyle name="输出 9" xfId="353"/>
-    <cellStyle name="输入 10" xfId="354"/>
-    <cellStyle name="输入 2" xfId="355"/>
-    <cellStyle name="输入 3" xfId="356"/>
-    <cellStyle name="输入 4" xfId="357"/>
-    <cellStyle name="输入 5" xfId="358"/>
-    <cellStyle name="输入 6" xfId="359"/>
-    <cellStyle name="输入 7" xfId="360"/>
-    <cellStyle name="输入 8" xfId="361"/>
-    <cellStyle name="输入 9" xfId="362"/>
-    <cellStyle name="注释 10" xfId="363"/>
-    <cellStyle name="注释 2" xfId="364"/>
-    <cellStyle name="注释 3" xfId="365"/>
-    <cellStyle name="注释 4" xfId="366"/>
-    <cellStyle name="注释 5" xfId="367"/>
-    <cellStyle name="注释 6" xfId="368"/>
-    <cellStyle name="注释 7" xfId="369"/>
-    <cellStyle name="注释 8" xfId="370"/>
-    <cellStyle name="注释 9" xfId="371"/>
+    <cellStyle name="常规 2" xfId="217" xr:uid="{00000000-0005-0000-0000-0000D9000000}"/>
+    <cellStyle name="常规 3" xfId="218" xr:uid="{00000000-0005-0000-0000-0000DA000000}"/>
+    <cellStyle name="好 10" xfId="219" xr:uid="{00000000-0005-0000-0000-0000DB000000}"/>
+    <cellStyle name="好 2" xfId="220" xr:uid="{00000000-0005-0000-0000-0000DC000000}"/>
+    <cellStyle name="好 3" xfId="221" xr:uid="{00000000-0005-0000-0000-0000DD000000}"/>
+    <cellStyle name="好 4" xfId="222" xr:uid="{00000000-0005-0000-0000-0000DE000000}"/>
+    <cellStyle name="好 5" xfId="223" xr:uid="{00000000-0005-0000-0000-0000DF000000}"/>
+    <cellStyle name="好 6" xfId="224" xr:uid="{00000000-0005-0000-0000-0000E0000000}"/>
+    <cellStyle name="好 7" xfId="225" xr:uid="{00000000-0005-0000-0000-0000E1000000}"/>
+    <cellStyle name="好 8" xfId="226" xr:uid="{00000000-0005-0000-0000-0000E2000000}"/>
+    <cellStyle name="好 9" xfId="227" xr:uid="{00000000-0005-0000-0000-0000E3000000}"/>
+    <cellStyle name="汇总 10" xfId="228" xr:uid="{00000000-0005-0000-0000-0000E4000000}"/>
+    <cellStyle name="汇总 2" xfId="229" xr:uid="{00000000-0005-0000-0000-0000E5000000}"/>
+    <cellStyle name="汇总 3" xfId="230" xr:uid="{00000000-0005-0000-0000-0000E6000000}"/>
+    <cellStyle name="汇总 4" xfId="231" xr:uid="{00000000-0005-0000-0000-0000E7000000}"/>
+    <cellStyle name="汇总 5" xfId="232" xr:uid="{00000000-0005-0000-0000-0000E8000000}"/>
+    <cellStyle name="汇总 6" xfId="233" xr:uid="{00000000-0005-0000-0000-0000E9000000}"/>
+    <cellStyle name="汇总 7" xfId="234" xr:uid="{00000000-0005-0000-0000-0000EA000000}"/>
+    <cellStyle name="汇总 8" xfId="235" xr:uid="{00000000-0005-0000-0000-0000EB000000}"/>
+    <cellStyle name="汇总 9" xfId="236" xr:uid="{00000000-0005-0000-0000-0000EC000000}"/>
+    <cellStyle name="计算 10" xfId="237" xr:uid="{00000000-0005-0000-0000-0000ED000000}"/>
+    <cellStyle name="计算 2" xfId="238" xr:uid="{00000000-0005-0000-0000-0000EE000000}"/>
+    <cellStyle name="计算 3" xfId="239" xr:uid="{00000000-0005-0000-0000-0000EF000000}"/>
+    <cellStyle name="计算 4" xfId="240" xr:uid="{00000000-0005-0000-0000-0000F0000000}"/>
+    <cellStyle name="计算 5" xfId="241" xr:uid="{00000000-0005-0000-0000-0000F1000000}"/>
+    <cellStyle name="计算 6" xfId="242" xr:uid="{00000000-0005-0000-0000-0000F2000000}"/>
+    <cellStyle name="计算 7" xfId="243" xr:uid="{00000000-0005-0000-0000-0000F3000000}"/>
+    <cellStyle name="计算 8" xfId="244" xr:uid="{00000000-0005-0000-0000-0000F4000000}"/>
+    <cellStyle name="计算 9" xfId="245" xr:uid="{00000000-0005-0000-0000-0000F5000000}"/>
+    <cellStyle name="检查单元格 10" xfId="246" xr:uid="{00000000-0005-0000-0000-0000F6000000}"/>
+    <cellStyle name="检查单元格 2" xfId="247" xr:uid="{00000000-0005-0000-0000-0000F7000000}"/>
+    <cellStyle name="检查单元格 3" xfId="248" xr:uid="{00000000-0005-0000-0000-0000F8000000}"/>
+    <cellStyle name="检查单元格 4" xfId="249" xr:uid="{00000000-0005-0000-0000-0000F9000000}"/>
+    <cellStyle name="检查单元格 5" xfId="250" xr:uid="{00000000-0005-0000-0000-0000FA000000}"/>
+    <cellStyle name="检查单元格 6" xfId="251" xr:uid="{00000000-0005-0000-0000-0000FB000000}"/>
+    <cellStyle name="检查单元格 7" xfId="252" xr:uid="{00000000-0005-0000-0000-0000FC000000}"/>
+    <cellStyle name="检查单元格 8" xfId="253" xr:uid="{00000000-0005-0000-0000-0000FD000000}"/>
+    <cellStyle name="检查单元格 9" xfId="254" xr:uid="{00000000-0005-0000-0000-0000FE000000}"/>
+    <cellStyle name="解释性文本 10" xfId="255" xr:uid="{00000000-0005-0000-0000-0000FF000000}"/>
+    <cellStyle name="解释性文本 2" xfId="256" xr:uid="{00000000-0005-0000-0000-000000010000}"/>
+    <cellStyle name="解释性文本 3" xfId="257" xr:uid="{00000000-0005-0000-0000-000001010000}"/>
+    <cellStyle name="解释性文本 4" xfId="258" xr:uid="{00000000-0005-0000-0000-000002010000}"/>
+    <cellStyle name="解释性文本 5" xfId="259" xr:uid="{00000000-0005-0000-0000-000003010000}"/>
+    <cellStyle name="解释性文本 6" xfId="260" xr:uid="{00000000-0005-0000-0000-000004010000}"/>
+    <cellStyle name="解释性文本 7" xfId="261" xr:uid="{00000000-0005-0000-0000-000005010000}"/>
+    <cellStyle name="解释性文本 8" xfId="262" xr:uid="{00000000-0005-0000-0000-000006010000}"/>
+    <cellStyle name="解释性文本 9" xfId="263" xr:uid="{00000000-0005-0000-0000-000007010000}"/>
+    <cellStyle name="警告文本 10" xfId="264" xr:uid="{00000000-0005-0000-0000-000008010000}"/>
+    <cellStyle name="警告文本 2" xfId="265" xr:uid="{00000000-0005-0000-0000-000009010000}"/>
+    <cellStyle name="警告文本 3" xfId="266" xr:uid="{00000000-0005-0000-0000-00000A010000}"/>
+    <cellStyle name="警告文本 4" xfId="267" xr:uid="{00000000-0005-0000-0000-00000B010000}"/>
+    <cellStyle name="警告文本 5" xfId="268" xr:uid="{00000000-0005-0000-0000-00000C010000}"/>
+    <cellStyle name="警告文本 6" xfId="269" xr:uid="{00000000-0005-0000-0000-00000D010000}"/>
+    <cellStyle name="警告文本 7" xfId="270" xr:uid="{00000000-0005-0000-0000-00000E010000}"/>
+    <cellStyle name="警告文本 8" xfId="271" xr:uid="{00000000-0005-0000-0000-00000F010000}"/>
+    <cellStyle name="警告文本 9" xfId="272" xr:uid="{00000000-0005-0000-0000-000010010000}"/>
+    <cellStyle name="链接单元格 10" xfId="273" xr:uid="{00000000-0005-0000-0000-000011010000}"/>
+    <cellStyle name="链接单元格 2" xfId="274" xr:uid="{00000000-0005-0000-0000-000012010000}"/>
+    <cellStyle name="链接单元格 3" xfId="275" xr:uid="{00000000-0005-0000-0000-000013010000}"/>
+    <cellStyle name="链接单元格 4" xfId="276" xr:uid="{00000000-0005-0000-0000-000014010000}"/>
+    <cellStyle name="链接单元格 5" xfId="277" xr:uid="{00000000-0005-0000-0000-000015010000}"/>
+    <cellStyle name="链接单元格 6" xfId="278" xr:uid="{00000000-0005-0000-0000-000016010000}"/>
+    <cellStyle name="链接单元格 7" xfId="279" xr:uid="{00000000-0005-0000-0000-000017010000}"/>
+    <cellStyle name="链接单元格 8" xfId="280" xr:uid="{00000000-0005-0000-0000-000018010000}"/>
+    <cellStyle name="链接单元格 9" xfId="281" xr:uid="{00000000-0005-0000-0000-000019010000}"/>
+    <cellStyle name="强调文字颜色 1 10" xfId="282" xr:uid="{00000000-0005-0000-0000-00001A010000}"/>
+    <cellStyle name="强调文字颜色 1 2" xfId="283" xr:uid="{00000000-0005-0000-0000-00001B010000}"/>
+    <cellStyle name="强调文字颜色 1 3" xfId="284" xr:uid="{00000000-0005-0000-0000-00001C010000}"/>
+    <cellStyle name="强调文字颜色 1 4" xfId="285" xr:uid="{00000000-0005-0000-0000-00001D010000}"/>
+    <cellStyle name="强调文字颜色 1 5" xfId="286" xr:uid="{00000000-0005-0000-0000-00001E010000}"/>
+    <cellStyle name="强调文字颜色 1 6" xfId="287" xr:uid="{00000000-0005-0000-0000-00001F010000}"/>
+    <cellStyle name="强调文字颜色 1 7" xfId="288" xr:uid="{00000000-0005-0000-0000-000020010000}"/>
+    <cellStyle name="强调文字颜色 1 8" xfId="289" xr:uid="{00000000-0005-0000-0000-000021010000}"/>
+    <cellStyle name="强调文字颜色 1 9" xfId="290" xr:uid="{00000000-0005-0000-0000-000022010000}"/>
+    <cellStyle name="强调文字颜色 2 10" xfId="291" xr:uid="{00000000-0005-0000-0000-000023010000}"/>
+    <cellStyle name="强调文字颜色 2 2" xfId="292" xr:uid="{00000000-0005-0000-0000-000024010000}"/>
+    <cellStyle name="强调文字颜色 2 3" xfId="293" xr:uid="{00000000-0005-0000-0000-000025010000}"/>
+    <cellStyle name="强调文字颜色 2 4" xfId="294" xr:uid="{00000000-0005-0000-0000-000026010000}"/>
+    <cellStyle name="强调文字颜色 2 5" xfId="295" xr:uid="{00000000-0005-0000-0000-000027010000}"/>
+    <cellStyle name="强调文字颜色 2 6" xfId="296" xr:uid="{00000000-0005-0000-0000-000028010000}"/>
+    <cellStyle name="强调文字颜色 2 7" xfId="297" xr:uid="{00000000-0005-0000-0000-000029010000}"/>
+    <cellStyle name="强调文字颜色 2 8" xfId="298" xr:uid="{00000000-0005-0000-0000-00002A010000}"/>
+    <cellStyle name="强调文字颜色 2 9" xfId="299" xr:uid="{00000000-0005-0000-0000-00002B010000}"/>
+    <cellStyle name="强调文字颜色 3 10" xfId="300" xr:uid="{00000000-0005-0000-0000-00002C010000}"/>
+    <cellStyle name="强调文字颜色 3 2" xfId="301" xr:uid="{00000000-0005-0000-0000-00002D010000}"/>
+    <cellStyle name="强调文字颜色 3 3" xfId="302" xr:uid="{00000000-0005-0000-0000-00002E010000}"/>
+    <cellStyle name="强调文字颜色 3 4" xfId="303" xr:uid="{00000000-0005-0000-0000-00002F010000}"/>
+    <cellStyle name="强调文字颜色 3 5" xfId="304" xr:uid="{00000000-0005-0000-0000-000030010000}"/>
+    <cellStyle name="强调文字颜色 3 6" xfId="305" xr:uid="{00000000-0005-0000-0000-000031010000}"/>
+    <cellStyle name="强调文字颜色 3 7" xfId="306" xr:uid="{00000000-0005-0000-0000-000032010000}"/>
+    <cellStyle name="强调文字颜色 3 8" xfId="307" xr:uid="{00000000-0005-0000-0000-000033010000}"/>
+    <cellStyle name="强调文字颜色 3 9" xfId="308" xr:uid="{00000000-0005-0000-0000-000034010000}"/>
+    <cellStyle name="强调文字颜色 4 10" xfId="309" xr:uid="{00000000-0005-0000-0000-000035010000}"/>
+    <cellStyle name="强调文字颜色 4 2" xfId="310" xr:uid="{00000000-0005-0000-0000-000036010000}"/>
+    <cellStyle name="强调文字颜色 4 3" xfId="311" xr:uid="{00000000-0005-0000-0000-000037010000}"/>
+    <cellStyle name="强调文字颜色 4 4" xfId="312" xr:uid="{00000000-0005-0000-0000-000038010000}"/>
+    <cellStyle name="强调文字颜色 4 5" xfId="313" xr:uid="{00000000-0005-0000-0000-000039010000}"/>
+    <cellStyle name="强调文字颜色 4 6" xfId="314" xr:uid="{00000000-0005-0000-0000-00003A010000}"/>
+    <cellStyle name="强调文字颜色 4 7" xfId="315" xr:uid="{00000000-0005-0000-0000-00003B010000}"/>
+    <cellStyle name="强调文字颜色 4 8" xfId="316" xr:uid="{00000000-0005-0000-0000-00003C010000}"/>
+    <cellStyle name="强调文字颜色 4 9" xfId="317" xr:uid="{00000000-0005-0000-0000-00003D010000}"/>
+    <cellStyle name="强调文字颜色 5 10" xfId="318" xr:uid="{00000000-0005-0000-0000-00003E010000}"/>
+    <cellStyle name="强调文字颜色 5 2" xfId="319" xr:uid="{00000000-0005-0000-0000-00003F010000}"/>
+    <cellStyle name="强调文字颜色 5 3" xfId="320" xr:uid="{00000000-0005-0000-0000-000040010000}"/>
+    <cellStyle name="强调文字颜色 5 4" xfId="321" xr:uid="{00000000-0005-0000-0000-000041010000}"/>
+    <cellStyle name="强调文字颜色 5 5" xfId="322" xr:uid="{00000000-0005-0000-0000-000042010000}"/>
+    <cellStyle name="强调文字颜色 5 6" xfId="323" xr:uid="{00000000-0005-0000-0000-000043010000}"/>
+    <cellStyle name="强调文字颜色 5 7" xfId="324" xr:uid="{00000000-0005-0000-0000-000044010000}"/>
+    <cellStyle name="强调文字颜色 5 8" xfId="325" xr:uid="{00000000-0005-0000-0000-000045010000}"/>
+    <cellStyle name="强调文字颜色 5 9" xfId="326" xr:uid="{00000000-0005-0000-0000-000046010000}"/>
+    <cellStyle name="强调文字颜色 6 10" xfId="327" xr:uid="{00000000-0005-0000-0000-000047010000}"/>
+    <cellStyle name="强调文字颜色 6 2" xfId="328" xr:uid="{00000000-0005-0000-0000-000048010000}"/>
+    <cellStyle name="强调文字颜色 6 3" xfId="329" xr:uid="{00000000-0005-0000-0000-000049010000}"/>
+    <cellStyle name="强调文字颜色 6 4" xfId="330" xr:uid="{00000000-0005-0000-0000-00004A010000}"/>
+    <cellStyle name="强调文字颜色 6 5" xfId="331" xr:uid="{00000000-0005-0000-0000-00004B010000}"/>
+    <cellStyle name="强调文字颜色 6 6" xfId="332" xr:uid="{00000000-0005-0000-0000-00004C010000}"/>
+    <cellStyle name="强调文字颜色 6 7" xfId="333" xr:uid="{00000000-0005-0000-0000-00004D010000}"/>
+    <cellStyle name="强调文字颜色 6 8" xfId="334" xr:uid="{00000000-0005-0000-0000-00004E010000}"/>
+    <cellStyle name="强调文字颜色 6 9" xfId="335" xr:uid="{00000000-0005-0000-0000-00004F010000}"/>
+    <cellStyle name="适中 10" xfId="336" xr:uid="{00000000-0005-0000-0000-000050010000}"/>
+    <cellStyle name="适中 2" xfId="337" xr:uid="{00000000-0005-0000-0000-000051010000}"/>
+    <cellStyle name="适中 3" xfId="338" xr:uid="{00000000-0005-0000-0000-000052010000}"/>
+    <cellStyle name="适中 4" xfId="339" xr:uid="{00000000-0005-0000-0000-000053010000}"/>
+    <cellStyle name="适中 5" xfId="340" xr:uid="{00000000-0005-0000-0000-000054010000}"/>
+    <cellStyle name="适中 6" xfId="341" xr:uid="{00000000-0005-0000-0000-000055010000}"/>
+    <cellStyle name="适中 7" xfId="342" xr:uid="{00000000-0005-0000-0000-000056010000}"/>
+    <cellStyle name="适中 8" xfId="343" xr:uid="{00000000-0005-0000-0000-000057010000}"/>
+    <cellStyle name="适中 9" xfId="344" xr:uid="{00000000-0005-0000-0000-000058010000}"/>
+    <cellStyle name="输出 10" xfId="345" xr:uid="{00000000-0005-0000-0000-000059010000}"/>
+    <cellStyle name="输出 2" xfId="346" xr:uid="{00000000-0005-0000-0000-00005A010000}"/>
+    <cellStyle name="输出 3" xfId="347" xr:uid="{00000000-0005-0000-0000-00005B010000}"/>
+    <cellStyle name="输出 4" xfId="348" xr:uid="{00000000-0005-0000-0000-00005C010000}"/>
+    <cellStyle name="输出 5" xfId="349" xr:uid="{00000000-0005-0000-0000-00005D010000}"/>
+    <cellStyle name="输出 6" xfId="350" xr:uid="{00000000-0005-0000-0000-00005E010000}"/>
+    <cellStyle name="输出 7" xfId="351" xr:uid="{00000000-0005-0000-0000-00005F010000}"/>
+    <cellStyle name="输出 8" xfId="352" xr:uid="{00000000-0005-0000-0000-000060010000}"/>
+    <cellStyle name="输出 9" xfId="353" xr:uid="{00000000-0005-0000-0000-000061010000}"/>
+    <cellStyle name="输入 10" xfId="354" xr:uid="{00000000-0005-0000-0000-000062010000}"/>
+    <cellStyle name="输入 2" xfId="355" xr:uid="{00000000-0005-0000-0000-000063010000}"/>
+    <cellStyle name="输入 3" xfId="356" xr:uid="{00000000-0005-0000-0000-000064010000}"/>
+    <cellStyle name="输入 4" xfId="357" xr:uid="{00000000-0005-0000-0000-000065010000}"/>
+    <cellStyle name="输入 5" xfId="358" xr:uid="{00000000-0005-0000-0000-000066010000}"/>
+    <cellStyle name="输入 6" xfId="359" xr:uid="{00000000-0005-0000-0000-000067010000}"/>
+    <cellStyle name="输入 7" xfId="360" xr:uid="{00000000-0005-0000-0000-000068010000}"/>
+    <cellStyle name="输入 8" xfId="361" xr:uid="{00000000-0005-0000-0000-000069010000}"/>
+    <cellStyle name="输入 9" xfId="362" xr:uid="{00000000-0005-0000-0000-00006A010000}"/>
+    <cellStyle name="注释 10" xfId="363" xr:uid="{00000000-0005-0000-0000-00006B010000}"/>
+    <cellStyle name="注释 2" xfId="364" xr:uid="{00000000-0005-0000-0000-00006C010000}"/>
+    <cellStyle name="注释 3" xfId="365" xr:uid="{00000000-0005-0000-0000-00006D010000}"/>
+    <cellStyle name="注释 4" xfId="366" xr:uid="{00000000-0005-0000-0000-00006E010000}"/>
+    <cellStyle name="注释 5" xfId="367" xr:uid="{00000000-0005-0000-0000-00006F010000}"/>
+    <cellStyle name="注释 6" xfId="368" xr:uid="{00000000-0005-0000-0000-000070010000}"/>
+    <cellStyle name="注释 7" xfId="369" xr:uid="{00000000-0005-0000-0000-000071010000}"/>
+    <cellStyle name="注释 8" xfId="370" xr:uid="{00000000-0005-0000-0000-000072010000}"/>
+    <cellStyle name="注释 9" xfId="371" xr:uid="{00000000-0005-0000-0000-000073010000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2034,19 +2065,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="第六组"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2306,11 +2324,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N99"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -2334,8 +2352,8 @@
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
-        <v>16</v>
+      <c r="B1" s="17" t="s">
+        <v>15</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>1</v>
@@ -2361,384 +2379,326 @@
       <c r="J1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="11"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
     </row>
     <row r="2" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="D2" s="15">
+        <v>32874</v>
+      </c>
+      <c r="E2" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="16">
-        <v>32874</v>
-      </c>
-      <c r="E2" s="15" t="s">
+      <c r="F2" s="14" t="s">
         <v>13</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>14</v>
       </c>
       <c r="G2" s="8">
         <v>1074100123</v>
       </c>
-      <c r="H2" s="17" t="s">
-        <v>15</v>
+      <c r="H2" s="16" t="s">
+        <v>14</v>
       </c>
       <c r="I2" s="8">
         <v>13919900123</v>
       </c>
-      <c r="J2" s="16">
+      <c r="J2" s="15">
         <v>44064</v>
       </c>
       <c r="K2" s="7"/>
-      <c r="L2" s="13"/>
+      <c r="L2" s="12"/>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
     </row>
     <row r="3" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="13"/>
+      <c r="A3" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="18">
+        <v>19800301</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="18">
+        <v>1074100123</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="18">
+        <v>13993155332</v>
+      </c>
+      <c r="J3" s="18">
+        <v>20200820</v>
+      </c>
+      <c r="K3" s="18"/>
+      <c r="L3" s="12"/>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
     </row>
     <row r="4" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="13"/>
+      <c r="A4" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="15">
+        <v>29281</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="18">
+        <v>1074100123</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="18">
+        <v>13993155332</v>
+      </c>
+      <c r="J4" s="15">
+        <v>44063</v>
+      </c>
+      <c r="K4" s="18"/>
+      <c r="L4" s="12"/>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
     </row>
     <row r="5" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="13"/>
+      <c r="A5" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="18">
+        <v>1074100123</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="18">
+        <v>13993155332</v>
+      </c>
+      <c r="J5" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="18"/>
+      <c r="L5" s="12"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
     <row r="6" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="13"/>
+      <c r="A6" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="18">
+        <v>1980.3</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="18">
+        <v>1074100123</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="18">
+        <v>13993155332</v>
+      </c>
+      <c r="J6" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="18"/>
+      <c r="L6" s="12"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
     <row r="7" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="13"/>
+      <c r="A7" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="18">
+        <v>198003</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="18">
+        <v>1074100123</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="18">
+        <v>13993155332</v>
+      </c>
+      <c r="J7" s="18">
+        <v>20200820</v>
+      </c>
+      <c r="K7" s="18"/>
+      <c r="L7" s="12"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
     </row>
-    <row r="8" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-    </row>
-    <row r="9" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-    </row>
-    <row r="10" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="7"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-    </row>
-    <row r="11" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="7"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="13"/>
-    </row>
-    <row r="12" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="7"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="13"/>
-    </row>
-    <row r="13" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="7"/>
-    </row>
-    <row r="14" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="7"/>
-    </row>
-    <row r="15" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-    </row>
-    <row r="16" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-    </row>
-    <row r="17" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="7"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-    </row>
-    <row r="18" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="7"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="13"/>
-    </row>
-    <row r="19" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="7"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-    </row>
-    <row r="20" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="7"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-    </row>
-    <row r="21" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="7"/>
-    </row>
-    <row r="22" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="7"/>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="D8" s="2"/>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="D9" s="2"/>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="D10" s="2"/>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="D11" s="2"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="D12" s="2"/>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="D13" s="2"/>
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="D14" s="2"/>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="D15" s="2"/>
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="D16" s="2"/>
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" spans="4:12" x14ac:dyDescent="0.4">
+      <c r="D17" s="2"/>
+      <c r="L17" s="2"/>
+    </row>
+    <row r="18" spans="4:12" x14ac:dyDescent="0.4">
+      <c r="D18" s="2"/>
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="4:12" x14ac:dyDescent="0.4">
+      <c r="D19" s="2"/>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="4:12" x14ac:dyDescent="0.4">
+      <c r="D20" s="2"/>
+      <c r="L20" s="2"/>
+    </row>
+    <row r="21" spans="4:12" x14ac:dyDescent="0.4">
+      <c r="D21" s="2"/>
+      <c r="L21" s="2"/>
+    </row>
+    <row r="22" spans="4:12" x14ac:dyDescent="0.4">
+      <c r="D22" s="2"/>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
+    <row r="23" spans="4:12" x14ac:dyDescent="0.4">
+      <c r="D23" s="2"/>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="24" spans="4:12" x14ac:dyDescent="0.4">
       <c r="D24" s="2"/>
       <c r="L24" s="2"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="25" spans="4:12" x14ac:dyDescent="0.4">
       <c r="D25" s="2"/>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="26" spans="4:12" x14ac:dyDescent="0.4">
       <c r="D26" s="2"/>
       <c r="L26" s="2"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="27" spans="4:12" x14ac:dyDescent="0.4">
       <c r="D27" s="2"/>
       <c r="L27" s="2"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="28" spans="4:12" x14ac:dyDescent="0.4">
       <c r="D28" s="2"/>
       <c r="L28" s="2"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="29" spans="4:12" x14ac:dyDescent="0.4">
       <c r="D29" s="2"/>
       <c r="L29" s="2"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="30" spans="4:12" x14ac:dyDescent="0.4">
       <c r="D30" s="2"/>
       <c r="L30" s="2"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="31" spans="4:12" x14ac:dyDescent="0.4">
       <c r="D31" s="2"/>
       <c r="L31" s="2"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="32" spans="4:12" x14ac:dyDescent="0.4">
       <c r="D32" s="2"/>
       <c r="L32" s="2"/>
     </row>
@@ -2847,85 +2807,69 @@
       <c r="L58" s="2"/>
     </row>
     <row r="59" spans="4:12" x14ac:dyDescent="0.4">
-      <c r="D59" s="2"/>
       <c r="L59" s="2"/>
     </row>
     <row r="60" spans="4:12" x14ac:dyDescent="0.4">
-      <c r="D60" s="2"/>
       <c r="L60" s="2"/>
     </row>
     <row r="61" spans="4:12" x14ac:dyDescent="0.4">
-      <c r="D61" s="2"/>
       <c r="L61" s="2"/>
     </row>
     <row r="62" spans="4:12" x14ac:dyDescent="0.4">
-      <c r="D62" s="2"/>
       <c r="L62" s="2"/>
     </row>
     <row r="63" spans="4:12" x14ac:dyDescent="0.4">
-      <c r="D63" s="2"/>
       <c r="L63" s="2"/>
     </row>
     <row r="64" spans="4:12" x14ac:dyDescent="0.4">
-      <c r="D64" s="2"/>
       <c r="L64" s="2"/>
     </row>
-    <row r="65" spans="4:12" x14ac:dyDescent="0.4">
-      <c r="D65" s="2"/>
+    <row r="65" spans="12:12" x14ac:dyDescent="0.4">
       <c r="L65" s="2"/>
     </row>
-    <row r="66" spans="4:12" x14ac:dyDescent="0.4">
-      <c r="D66" s="2"/>
+    <row r="66" spans="12:12" x14ac:dyDescent="0.4">
       <c r="L66" s="2"/>
     </row>
-    <row r="67" spans="4:12" x14ac:dyDescent="0.4">
-      <c r="D67" s="2"/>
+    <row r="67" spans="12:12" x14ac:dyDescent="0.4">
       <c r="L67" s="2"/>
     </row>
-    <row r="68" spans="4:12" x14ac:dyDescent="0.4">
-      <c r="D68" s="2"/>
+    <row r="68" spans="12:12" x14ac:dyDescent="0.4">
       <c r="L68" s="2"/>
     </row>
-    <row r="69" spans="4:12" x14ac:dyDescent="0.4">
-      <c r="D69" s="2"/>
+    <row r="69" spans="12:12" x14ac:dyDescent="0.4">
       <c r="L69" s="2"/>
     </row>
-    <row r="70" spans="4:12" x14ac:dyDescent="0.4">
-      <c r="D70" s="2"/>
+    <row r="70" spans="12:12" x14ac:dyDescent="0.4">
       <c r="L70" s="2"/>
     </row>
-    <row r="71" spans="4:12" x14ac:dyDescent="0.4">
-      <c r="D71" s="2"/>
+    <row r="71" spans="12:12" x14ac:dyDescent="0.4">
       <c r="L71" s="2"/>
     </row>
-    <row r="72" spans="4:12" x14ac:dyDescent="0.4">
-      <c r="D72" s="2"/>
+    <row r="72" spans="12:12" x14ac:dyDescent="0.4">
       <c r="L72" s="2"/>
     </row>
-    <row r="73" spans="4:12" x14ac:dyDescent="0.4">
-      <c r="D73" s="2"/>
+    <row r="73" spans="12:12" x14ac:dyDescent="0.4">
       <c r="L73" s="2"/>
     </row>
-    <row r="74" spans="4:12" x14ac:dyDescent="0.4">
-      <c r="D74" s="2"/>
+    <row r="74" spans="12:12" x14ac:dyDescent="0.4">
       <c r="L74" s="2"/>
     </row>
-    <row r="75" spans="4:12" x14ac:dyDescent="0.4">
+    <row r="75" spans="12:12" x14ac:dyDescent="0.4">
       <c r="L75" s="2"/>
     </row>
-    <row r="76" spans="4:12" x14ac:dyDescent="0.4">
+    <row r="76" spans="12:12" x14ac:dyDescent="0.4">
       <c r="L76" s="2"/>
     </row>
-    <row r="77" spans="4:12" x14ac:dyDescent="0.4">
+    <row r="77" spans="12:12" x14ac:dyDescent="0.4">
       <c r="L77" s="2"/>
     </row>
-    <row r="78" spans="4:12" x14ac:dyDescent="0.4">
+    <row r="78" spans="12:12" x14ac:dyDescent="0.4">
       <c r="L78" s="2"/>
     </row>
-    <row r="79" spans="4:12" x14ac:dyDescent="0.4">
+    <row r="79" spans="12:12" x14ac:dyDescent="0.4">
       <c r="L79" s="2"/>
     </row>
-    <row r="80" spans="4:12" x14ac:dyDescent="0.4">
+    <row r="80" spans="12:12" x14ac:dyDescent="0.4">
       <c r="L80" s="2"/>
     </row>
     <row r="81" spans="12:12" x14ac:dyDescent="0.4">
@@ -2936,54 +2880,6 @@
     </row>
     <row r="83" spans="12:12" x14ac:dyDescent="0.4">
       <c r="L83" s="2"/>
-    </row>
-    <row r="84" spans="12:12" x14ac:dyDescent="0.4">
-      <c r="L84" s="2"/>
-    </row>
-    <row r="85" spans="12:12" x14ac:dyDescent="0.4">
-      <c r="L85" s="2"/>
-    </row>
-    <row r="86" spans="12:12" x14ac:dyDescent="0.4">
-      <c r="L86" s="2"/>
-    </row>
-    <row r="87" spans="12:12" x14ac:dyDescent="0.4">
-      <c r="L87" s="2"/>
-    </row>
-    <row r="88" spans="12:12" x14ac:dyDescent="0.4">
-      <c r="L88" s="2"/>
-    </row>
-    <row r="89" spans="12:12" x14ac:dyDescent="0.4">
-      <c r="L89" s="2"/>
-    </row>
-    <row r="90" spans="12:12" x14ac:dyDescent="0.4">
-      <c r="L90" s="2"/>
-    </row>
-    <row r="91" spans="12:12" x14ac:dyDescent="0.4">
-      <c r="L91" s="2"/>
-    </row>
-    <row r="92" spans="12:12" x14ac:dyDescent="0.4">
-      <c r="L92" s="2"/>
-    </row>
-    <row r="93" spans="12:12" x14ac:dyDescent="0.4">
-      <c r="L93" s="2"/>
-    </row>
-    <row r="94" spans="12:12" x14ac:dyDescent="0.4">
-      <c r="L94" s="2"/>
-    </row>
-    <row r="95" spans="12:12" x14ac:dyDescent="0.4">
-      <c r="L95" s="2"/>
-    </row>
-    <row r="96" spans="12:12" x14ac:dyDescent="0.4">
-      <c r="L96" s="2"/>
-    </row>
-    <row r="97" spans="12:12" x14ac:dyDescent="0.4">
-      <c r="L97" s="2"/>
-    </row>
-    <row r="98" spans="12:12" x14ac:dyDescent="0.4">
-      <c r="L98" s="2"/>
-    </row>
-    <row r="99" spans="12:12" x14ac:dyDescent="0.4">
-      <c r="L99" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="21" type="noConversion"/>

--- a/PartyMemberManager/ExcelTemplates/教职工入党积极分子培训报名表模板.xlsx
+++ b/PartyMemberManager/ExcelTemplates/教职工入党积极分子培训报名表模板.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\我的文件\PartyMemberManager\PartyMemberManager\ExcelTemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D6AA878-BD17-48E5-8D67-9A6AAFCB3783}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{337730B1-2648-43B4-BF39-5E5402CFECF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
   <si>
     <t>序号</t>
   </si>
@@ -117,6 +117,34 @@
   </si>
   <si>
     <t>6</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘老师</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵老师</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨老师</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>李老师</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>张老师</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>620102200001026677</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>620102200001027788</t>
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
 </sst>
@@ -1629,7 +1657,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1677,6 +1705,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2328,7 +2359,7 @@
   <dimension ref="A1:N83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -2427,7 +2458,7 @@
         <v>17</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C3" s="18" t="s">
         <v>11</v>
@@ -2441,8 +2472,8 @@
       <c r="F3" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="18">
-        <v>1074100123</v>
+      <c r="G3" s="8">
+        <v>1074100124</v>
       </c>
       <c r="H3" s="18" t="s">
         <v>19</v>
@@ -2463,7 +2494,7 @@
         <v>20</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>11</v>
@@ -2477,11 +2508,11 @@
       <c r="F4" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="18">
-        <v>1074100123</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>19</v>
+      <c r="G4" s="8">
+        <v>1074100125</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>31</v>
       </c>
       <c r="I4" s="18">
         <v>13993155332</v>
@@ -2499,7 +2530,7 @@
         <v>21</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C5" s="18" t="s">
         <v>11</v>
@@ -2513,11 +2544,11 @@
       <c r="F5" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="18">
-        <v>1074100123</v>
-      </c>
-      <c r="H5" s="18" t="s">
-        <v>19</v>
+      <c r="G5" s="8">
+        <v>1074100126</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>32</v>
       </c>
       <c r="I5" s="18">
         <v>13993155332</v>
@@ -2535,7 +2566,7 @@
         <v>24</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C6" s="18" t="s">
         <v>11</v>
@@ -2549,8 +2580,8 @@
       <c r="F6" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="18">
-        <v>1074100123</v>
+      <c r="G6" s="8">
+        <v>1074100127</v>
       </c>
       <c r="H6" s="18" t="s">
         <v>19</v>
@@ -2571,7 +2602,7 @@
         <v>25</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C7" s="18" t="s">
         <v>11</v>
@@ -2585,8 +2616,8 @@
       <c r="F7" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="18">
-        <v>1074100123</v>
+      <c r="G7" s="8">
+        <v>1074100128</v>
       </c>
       <c r="H7" s="18" t="s">
         <v>19</v>

--- a/PartyMemberManager/ExcelTemplates/教职工入党积极分子培训报名表模板.xlsx
+++ b/PartyMemberManager/ExcelTemplates/教职工入党积极分子培训报名表模板.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\我的文件\PartyMemberManager\PartyMemberManager\ExcelTemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{337730B1-2648-43B4-BF39-5E5402CFECF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E8A6806-566F-4FAE-9C43-DD3C0EBA0A0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="34">
   <si>
     <t>序号</t>
   </si>
@@ -146,6 +146,9 @@
   <si>
     <t>620102200001027788</t>
     <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定入党积极分子时间</t>
   </si>
 </sst>
 </file>
@@ -155,7 +158,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -305,6 +308,13 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1657,7 +1667,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1681,13 +1691,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="22" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1708,6 +1712,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2358,8 +2365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -2373,8 +2380,8 @@
     <col min="7" max="8" width="17.25" style="2" customWidth="1"/>
     <col min="9" max="9" width="15.25" style="2" customWidth="1"/>
     <col min="10" max="10" width="13.625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="11.125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="85.75" style="4" customWidth="1"/>
+    <col min="11" max="11" width="21.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.125" style="2" customWidth="1"/>
     <col min="13" max="32" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="33" max="16384" width="8.75" style="2"/>
   </cols>
@@ -2383,7 +2390,7 @@
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="15" t="s">
         <v>15</v>
       </c>
       <c r="C1" s="5" t="s">
@@ -2410,507 +2417,521 @@
       <c r="J1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="10"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
     </row>
     <row r="2" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="13">
         <v>32874</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="12" t="s">
         <v>13</v>
       </c>
       <c r="G2" s="8">
         <v>1074100123</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="14" t="s">
         <v>14</v>
       </c>
       <c r="I2" s="8">
         <v>13919900123</v>
       </c>
-      <c r="J2" s="15">
+      <c r="J2" s="13">
         <v>44064</v>
       </c>
-      <c r="K2" s="7"/>
-      <c r="L2" s="12"/>
+      <c r="K2" s="13">
+        <v>44064</v>
+      </c>
+      <c r="L2" s="7"/>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
     </row>
     <row r="3" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="16">
         <v>19800301</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G3" s="8">
         <v>1074100124</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="18">
+      <c r="I3" s="16">
         <v>13993155332</v>
       </c>
-      <c r="J3" s="18">
+      <c r="J3" s="16">
         <v>20200820</v>
       </c>
-      <c r="K3" s="18"/>
-      <c r="L3" s="12"/>
+      <c r="K3" s="16">
+        <v>20200820</v>
+      </c>
+      <c r="L3" s="16"/>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
     </row>
     <row r="4" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="13">
         <v>29281</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G4" s="8">
         <v>1074100125</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="18">
+      <c r="I4" s="16">
         <v>13993155332</v>
       </c>
-      <c r="J4" s="15">
+      <c r="J4" s="13">
         <v>44063</v>
       </c>
-      <c r="K4" s="18"/>
-      <c r="L4" s="12"/>
+      <c r="K4" s="13">
+        <v>44063</v>
+      </c>
+      <c r="L4" s="16"/>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
     </row>
     <row r="5" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G5" s="8">
         <v>1074100126</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="H5" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="I5" s="18">
+      <c r="I5" s="16">
         <v>13993155332</v>
       </c>
-      <c r="J5" s="18" t="s">
+      <c r="J5" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="18"/>
-      <c r="L5" s="12"/>
+      <c r="K5" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" s="16"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
     <row r="6" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="16">
         <v>1980.3</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G6" s="8">
         <v>1074100127</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="H6" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="18">
+      <c r="I6" s="16">
         <v>13993155332</v>
       </c>
-      <c r="J6" s="18" t="s">
+      <c r="J6" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K6" s="18"/>
-      <c r="L6" s="12"/>
+      <c r="K6" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" s="16"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
     <row r="7" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="16">
         <v>198003</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G7" s="8">
         <v>1074100128</v>
       </c>
-      <c r="H7" s="18" t="s">
+      <c r="H7" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="18">
+      <c r="I7" s="16">
         <v>13993155332</v>
       </c>
-      <c r="J7" s="18">
+      <c r="J7" s="16">
         <v>20200820</v>
       </c>
-      <c r="K7" s="18"/>
-      <c r="L7" s="12"/>
+      <c r="K7" s="16">
+        <v>20200820</v>
+      </c>
+      <c r="L7" s="16"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="D8" s="2"/>
-      <c r="L8" s="2"/>
+      <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="D9" s="2"/>
-      <c r="L9" s="2"/>
+      <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.4">
       <c r="D10" s="2"/>
-      <c r="L10" s="2"/>
+      <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.4">
       <c r="D11" s="2"/>
-      <c r="L11" s="2"/>
+      <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.4">
       <c r="D12" s="2"/>
-      <c r="L12" s="2"/>
+      <c r="K12" s="2"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.4">
       <c r="D13" s="2"/>
-      <c r="L13" s="2"/>
+      <c r="K13" s="2"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.4">
       <c r="D14" s="2"/>
-      <c r="L14" s="2"/>
+      <c r="K14" s="2"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.4">
       <c r="D15" s="2"/>
-      <c r="L15" s="2"/>
+      <c r="K15" s="2"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.4">
       <c r="D16" s="2"/>
-      <c r="L16" s="2"/>
-    </row>
-    <row r="17" spans="4:12" x14ac:dyDescent="0.4">
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" spans="4:11" x14ac:dyDescent="0.4">
       <c r="D17" s="2"/>
-      <c r="L17" s="2"/>
-    </row>
-    <row r="18" spans="4:12" x14ac:dyDescent="0.4">
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="4:11" x14ac:dyDescent="0.4">
       <c r="D18" s="2"/>
-      <c r="L18" s="2"/>
-    </row>
-    <row r="19" spans="4:12" x14ac:dyDescent="0.4">
+      <c r="K18" s="2"/>
+    </row>
+    <row r="19" spans="4:11" x14ac:dyDescent="0.4">
       <c r="D19" s="2"/>
-      <c r="L19" s="2"/>
-    </row>
-    <row r="20" spans="4:12" x14ac:dyDescent="0.4">
+      <c r="K19" s="2"/>
+    </row>
+    <row r="20" spans="4:11" x14ac:dyDescent="0.4">
       <c r="D20" s="2"/>
-      <c r="L20" s="2"/>
-    </row>
-    <row r="21" spans="4:12" x14ac:dyDescent="0.4">
+      <c r="K20" s="2"/>
+    </row>
+    <row r="21" spans="4:11" x14ac:dyDescent="0.4">
       <c r="D21" s="2"/>
-      <c r="L21" s="2"/>
-    </row>
-    <row r="22" spans="4:12" x14ac:dyDescent="0.4">
+      <c r="K21" s="2"/>
+    </row>
+    <row r="22" spans="4:11" x14ac:dyDescent="0.4">
       <c r="D22" s="2"/>
-      <c r="L22" s="2"/>
-    </row>
-    <row r="23" spans="4:12" x14ac:dyDescent="0.4">
+      <c r="K22" s="2"/>
+    </row>
+    <row r="23" spans="4:11" x14ac:dyDescent="0.4">
       <c r="D23" s="2"/>
-      <c r="L23" s="2"/>
-    </row>
-    <row r="24" spans="4:12" x14ac:dyDescent="0.4">
+      <c r="K23" s="2"/>
+    </row>
+    <row r="24" spans="4:11" x14ac:dyDescent="0.4">
       <c r="D24" s="2"/>
-      <c r="L24" s="2"/>
-    </row>
-    <row r="25" spans="4:12" x14ac:dyDescent="0.4">
+      <c r="K24" s="2"/>
+    </row>
+    <row r="25" spans="4:11" x14ac:dyDescent="0.4">
       <c r="D25" s="2"/>
-      <c r="L25" s="2"/>
-    </row>
-    <row r="26" spans="4:12" x14ac:dyDescent="0.4">
+      <c r="K25" s="2"/>
+    </row>
+    <row r="26" spans="4:11" x14ac:dyDescent="0.4">
       <c r="D26" s="2"/>
-      <c r="L26" s="2"/>
-    </row>
-    <row r="27" spans="4:12" x14ac:dyDescent="0.4">
+      <c r="K26" s="2"/>
+    </row>
+    <row r="27" spans="4:11" x14ac:dyDescent="0.4">
       <c r="D27" s="2"/>
-      <c r="L27" s="2"/>
-    </row>
-    <row r="28" spans="4:12" x14ac:dyDescent="0.4">
+      <c r="K27" s="2"/>
+    </row>
+    <row r="28" spans="4:11" x14ac:dyDescent="0.4">
       <c r="D28" s="2"/>
-      <c r="L28" s="2"/>
-    </row>
-    <row r="29" spans="4:12" x14ac:dyDescent="0.4">
+      <c r="K28" s="2"/>
+    </row>
+    <row r="29" spans="4:11" x14ac:dyDescent="0.4">
       <c r="D29" s="2"/>
-      <c r="L29" s="2"/>
-    </row>
-    <row r="30" spans="4:12" x14ac:dyDescent="0.4">
+      <c r="K29" s="2"/>
+    </row>
+    <row r="30" spans="4:11" x14ac:dyDescent="0.4">
       <c r="D30" s="2"/>
-      <c r="L30" s="2"/>
-    </row>
-    <row r="31" spans="4:12" x14ac:dyDescent="0.4">
+      <c r="K30" s="2"/>
+    </row>
+    <row r="31" spans="4:11" x14ac:dyDescent="0.4">
       <c r="D31" s="2"/>
-      <c r="L31" s="2"/>
-    </row>
-    <row r="32" spans="4:12" x14ac:dyDescent="0.4">
+      <c r="K31" s="2"/>
+    </row>
+    <row r="32" spans="4:11" x14ac:dyDescent="0.4">
       <c r="D32" s="2"/>
-      <c r="L32" s="2"/>
-    </row>
-    <row r="33" spans="4:12" x14ac:dyDescent="0.4">
+      <c r="K32" s="2"/>
+    </row>
+    <row r="33" spans="4:11" x14ac:dyDescent="0.4">
       <c r="D33" s="2"/>
-      <c r="L33" s="2"/>
-    </row>
-    <row r="34" spans="4:12" x14ac:dyDescent="0.4">
+      <c r="K33" s="2"/>
+    </row>
+    <row r="34" spans="4:11" x14ac:dyDescent="0.4">
       <c r="D34" s="2"/>
-      <c r="L34" s="2"/>
-    </row>
-    <row r="35" spans="4:12" x14ac:dyDescent="0.4">
+      <c r="K34" s="2"/>
+    </row>
+    <row r="35" spans="4:11" x14ac:dyDescent="0.4">
       <c r="D35" s="2"/>
-      <c r="L35" s="2"/>
-    </row>
-    <row r="36" spans="4:12" x14ac:dyDescent="0.4">
+      <c r="K35" s="2"/>
+    </row>
+    <row r="36" spans="4:11" x14ac:dyDescent="0.4">
       <c r="D36" s="2"/>
-      <c r="L36" s="2"/>
-    </row>
-    <row r="37" spans="4:12" x14ac:dyDescent="0.4">
+      <c r="K36" s="2"/>
+    </row>
+    <row r="37" spans="4:11" x14ac:dyDescent="0.4">
       <c r="D37" s="2"/>
-      <c r="L37" s="2"/>
-    </row>
-    <row r="38" spans="4:12" x14ac:dyDescent="0.4">
+      <c r="K37" s="2"/>
+    </row>
+    <row r="38" spans="4:11" x14ac:dyDescent="0.4">
       <c r="D38" s="2"/>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="4:12" x14ac:dyDescent="0.4">
+      <c r="K38" s="2"/>
+    </row>
+    <row r="39" spans="4:11" x14ac:dyDescent="0.4">
       <c r="D39" s="2"/>
-      <c r="L39" s="2"/>
-    </row>
-    <row r="40" spans="4:12" x14ac:dyDescent="0.4">
+      <c r="K39" s="2"/>
+    </row>
+    <row r="40" spans="4:11" x14ac:dyDescent="0.4">
       <c r="D40" s="2"/>
-      <c r="L40" s="2"/>
-    </row>
-    <row r="41" spans="4:12" x14ac:dyDescent="0.4">
+      <c r="K40" s="2"/>
+    </row>
+    <row r="41" spans="4:11" x14ac:dyDescent="0.4">
       <c r="D41" s="2"/>
-      <c r="L41" s="2"/>
-    </row>
-    <row r="42" spans="4:12" x14ac:dyDescent="0.4">
+      <c r="K41" s="2"/>
+    </row>
+    <row r="42" spans="4:11" x14ac:dyDescent="0.4">
       <c r="D42" s="2"/>
-      <c r="L42" s="2"/>
-    </row>
-    <row r="43" spans="4:12" x14ac:dyDescent="0.4">
+      <c r="K42" s="2"/>
+    </row>
+    <row r="43" spans="4:11" x14ac:dyDescent="0.4">
       <c r="D43" s="2"/>
-      <c r="L43" s="2"/>
-    </row>
-    <row r="44" spans="4:12" x14ac:dyDescent="0.4">
+      <c r="K43" s="2"/>
+    </row>
+    <row r="44" spans="4:11" x14ac:dyDescent="0.4">
       <c r="D44" s="2"/>
-      <c r="L44" s="2"/>
-    </row>
-    <row r="45" spans="4:12" x14ac:dyDescent="0.4">
+      <c r="K44" s="2"/>
+    </row>
+    <row r="45" spans="4:11" x14ac:dyDescent="0.4">
       <c r="D45" s="2"/>
-      <c r="L45" s="2"/>
-    </row>
-    <row r="46" spans="4:12" x14ac:dyDescent="0.4">
+      <c r="K45" s="2"/>
+    </row>
+    <row r="46" spans="4:11" x14ac:dyDescent="0.4">
       <c r="D46" s="2"/>
-      <c r="L46" s="2"/>
-    </row>
-    <row r="47" spans="4:12" x14ac:dyDescent="0.4">
+      <c r="K46" s="2"/>
+    </row>
+    <row r="47" spans="4:11" x14ac:dyDescent="0.4">
       <c r="D47" s="2"/>
-      <c r="L47" s="2"/>
-    </row>
-    <row r="48" spans="4:12" x14ac:dyDescent="0.4">
+      <c r="K47" s="2"/>
+    </row>
+    <row r="48" spans="4:11" x14ac:dyDescent="0.4">
       <c r="D48" s="2"/>
-      <c r="L48" s="2"/>
-    </row>
-    <row r="49" spans="4:12" x14ac:dyDescent="0.4">
+      <c r="K48" s="2"/>
+    </row>
+    <row r="49" spans="4:11" x14ac:dyDescent="0.4">
       <c r="D49" s="2"/>
-      <c r="L49" s="2"/>
-    </row>
-    <row r="50" spans="4:12" x14ac:dyDescent="0.4">
+      <c r="K49" s="2"/>
+    </row>
+    <row r="50" spans="4:11" x14ac:dyDescent="0.4">
       <c r="D50" s="2"/>
-      <c r="L50" s="2"/>
-    </row>
-    <row r="51" spans="4:12" x14ac:dyDescent="0.4">
+      <c r="K50" s="2"/>
+    </row>
+    <row r="51" spans="4:11" x14ac:dyDescent="0.4">
       <c r="D51" s="2"/>
-      <c r="L51" s="2"/>
-    </row>
-    <row r="52" spans="4:12" x14ac:dyDescent="0.4">
+      <c r="K51" s="2"/>
+    </row>
+    <row r="52" spans="4:11" x14ac:dyDescent="0.4">
       <c r="D52" s="2"/>
-      <c r="L52" s="2"/>
-    </row>
-    <row r="53" spans="4:12" x14ac:dyDescent="0.4">
+      <c r="K52" s="2"/>
+    </row>
+    <row r="53" spans="4:11" x14ac:dyDescent="0.4">
       <c r="D53" s="2"/>
-      <c r="L53" s="2"/>
-    </row>
-    <row r="54" spans="4:12" x14ac:dyDescent="0.4">
+      <c r="K53" s="2"/>
+    </row>
+    <row r="54" spans="4:11" x14ac:dyDescent="0.4">
       <c r="D54" s="2"/>
-      <c r="L54" s="2"/>
-    </row>
-    <row r="55" spans="4:12" x14ac:dyDescent="0.4">
+      <c r="K54" s="2"/>
+    </row>
+    <row r="55" spans="4:11" x14ac:dyDescent="0.4">
       <c r="D55" s="2"/>
-      <c r="L55" s="2"/>
-    </row>
-    <row r="56" spans="4:12" x14ac:dyDescent="0.4">
+      <c r="K55" s="2"/>
+    </row>
+    <row r="56" spans="4:11" x14ac:dyDescent="0.4">
       <c r="D56" s="2"/>
-      <c r="L56" s="2"/>
-    </row>
-    <row r="57" spans="4:12" x14ac:dyDescent="0.4">
+      <c r="K56" s="2"/>
+    </row>
+    <row r="57" spans="4:11" x14ac:dyDescent="0.4">
       <c r="D57" s="2"/>
-      <c r="L57" s="2"/>
-    </row>
-    <row r="58" spans="4:12" x14ac:dyDescent="0.4">
+      <c r="K57" s="2"/>
+    </row>
+    <row r="58" spans="4:11" x14ac:dyDescent="0.4">
       <c r="D58" s="2"/>
-      <c r="L58" s="2"/>
-    </row>
-    <row r="59" spans="4:12" x14ac:dyDescent="0.4">
-      <c r="L59" s="2"/>
-    </row>
-    <row r="60" spans="4:12" x14ac:dyDescent="0.4">
-      <c r="L60" s="2"/>
-    </row>
-    <row r="61" spans="4:12" x14ac:dyDescent="0.4">
-      <c r="L61" s="2"/>
-    </row>
-    <row r="62" spans="4:12" x14ac:dyDescent="0.4">
-      <c r="L62" s="2"/>
-    </row>
-    <row r="63" spans="4:12" x14ac:dyDescent="0.4">
-      <c r="L63" s="2"/>
-    </row>
-    <row r="64" spans="4:12" x14ac:dyDescent="0.4">
-      <c r="L64" s="2"/>
-    </row>
-    <row r="65" spans="12:12" x14ac:dyDescent="0.4">
-      <c r="L65" s="2"/>
-    </row>
-    <row r="66" spans="12:12" x14ac:dyDescent="0.4">
-      <c r="L66" s="2"/>
-    </row>
-    <row r="67" spans="12:12" x14ac:dyDescent="0.4">
-      <c r="L67" s="2"/>
-    </row>
-    <row r="68" spans="12:12" x14ac:dyDescent="0.4">
-      <c r="L68" s="2"/>
-    </row>
-    <row r="69" spans="12:12" x14ac:dyDescent="0.4">
-      <c r="L69" s="2"/>
-    </row>
-    <row r="70" spans="12:12" x14ac:dyDescent="0.4">
-      <c r="L70" s="2"/>
-    </row>
-    <row r="71" spans="12:12" x14ac:dyDescent="0.4">
-      <c r="L71" s="2"/>
-    </row>
-    <row r="72" spans="12:12" x14ac:dyDescent="0.4">
-      <c r="L72" s="2"/>
-    </row>
-    <row r="73" spans="12:12" x14ac:dyDescent="0.4">
-      <c r="L73" s="2"/>
-    </row>
-    <row r="74" spans="12:12" x14ac:dyDescent="0.4">
-      <c r="L74" s="2"/>
-    </row>
-    <row r="75" spans="12:12" x14ac:dyDescent="0.4">
-      <c r="L75" s="2"/>
-    </row>
-    <row r="76" spans="12:12" x14ac:dyDescent="0.4">
-      <c r="L76" s="2"/>
-    </row>
-    <row r="77" spans="12:12" x14ac:dyDescent="0.4">
-      <c r="L77" s="2"/>
-    </row>
-    <row r="78" spans="12:12" x14ac:dyDescent="0.4">
-      <c r="L78" s="2"/>
-    </row>
-    <row r="79" spans="12:12" x14ac:dyDescent="0.4">
-      <c r="L79" s="2"/>
-    </row>
-    <row r="80" spans="12:12" x14ac:dyDescent="0.4">
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="12:12" x14ac:dyDescent="0.4">
-      <c r="L81" s="2"/>
-    </row>
-    <row r="82" spans="12:12" x14ac:dyDescent="0.4">
-      <c r="L82" s="2"/>
-    </row>
-    <row r="83" spans="12:12" x14ac:dyDescent="0.4">
-      <c r="L83" s="2"/>
+      <c r="K58" s="2"/>
+    </row>
+    <row r="59" spans="4:11" x14ac:dyDescent="0.4">
+      <c r="K59" s="2"/>
+    </row>
+    <row r="60" spans="4:11" x14ac:dyDescent="0.4">
+      <c r="K60" s="2"/>
+    </row>
+    <row r="61" spans="4:11" x14ac:dyDescent="0.4">
+      <c r="K61" s="2"/>
+    </row>
+    <row r="62" spans="4:11" x14ac:dyDescent="0.4">
+      <c r="K62" s="2"/>
+    </row>
+    <row r="63" spans="4:11" x14ac:dyDescent="0.4">
+      <c r="K63" s="2"/>
+    </row>
+    <row r="64" spans="4:11" x14ac:dyDescent="0.4">
+      <c r="K64" s="2"/>
+    </row>
+    <row r="65" spans="11:11" x14ac:dyDescent="0.4">
+      <c r="K65" s="2"/>
+    </row>
+    <row r="66" spans="11:11" x14ac:dyDescent="0.4">
+      <c r="K66" s="2"/>
+    </row>
+    <row r="67" spans="11:11" x14ac:dyDescent="0.4">
+      <c r="K67" s="2"/>
+    </row>
+    <row r="68" spans="11:11" x14ac:dyDescent="0.4">
+      <c r="K68" s="2"/>
+    </row>
+    <row r="69" spans="11:11" x14ac:dyDescent="0.4">
+      <c r="K69" s="2"/>
+    </row>
+    <row r="70" spans="11:11" x14ac:dyDescent="0.4">
+      <c r="K70" s="2"/>
+    </row>
+    <row r="71" spans="11:11" x14ac:dyDescent="0.4">
+      <c r="K71" s="2"/>
+    </row>
+    <row r="72" spans="11:11" x14ac:dyDescent="0.4">
+      <c r="K72" s="2"/>
+    </row>
+    <row r="73" spans="11:11" x14ac:dyDescent="0.4">
+      <c r="K73" s="2"/>
+    </row>
+    <row r="74" spans="11:11" x14ac:dyDescent="0.4">
+      <c r="K74" s="2"/>
+    </row>
+    <row r="75" spans="11:11" x14ac:dyDescent="0.4">
+      <c r="K75" s="2"/>
+    </row>
+    <row r="76" spans="11:11" x14ac:dyDescent="0.4">
+      <c r="K76" s="2"/>
+    </row>
+    <row r="77" spans="11:11" x14ac:dyDescent="0.4">
+      <c r="K77" s="2"/>
+    </row>
+    <row r="78" spans="11:11" x14ac:dyDescent="0.4">
+      <c r="K78" s="2"/>
+    </row>
+    <row r="79" spans="11:11" x14ac:dyDescent="0.4">
+      <c r="K79" s="2"/>
+    </row>
+    <row r="80" spans="11:11" x14ac:dyDescent="0.4">
+      <c r="K80" s="2"/>
+    </row>
+    <row r="81" spans="11:11" x14ac:dyDescent="0.4">
+      <c r="K81" s="2"/>
+    </row>
+    <row r="82" spans="11:11" x14ac:dyDescent="0.4">
+      <c r="K82" s="2"/>
+    </row>
+    <row r="83" spans="11:11" x14ac:dyDescent="0.4">
+      <c r="K83" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="21" type="noConversion"/>
